--- a/DDAf_2024_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49B966FD-9B98-4C96-B79A-AE6BF68D282D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70A22203-A97F-412F-98F6-6BB606DE16CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E0926A9E-F0C1-47E9-B8AB-B906527E4584}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B48CE12-132B-4E24-8433-ACE0785E1888}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FE8047-76DC-41BA-812A-23A850475CA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE81B6-1737-47B7-842F-B70EFC364DE8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1559,15 +1559,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="103" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="103" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1588,7 +1588,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>19</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>8.1257135166810004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>8.4359190863710007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0.23126479919816001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>32</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>34</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>36</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>0.23168507336234001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>38</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0.10979728553595999</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>40</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>0.14767269682539999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>42</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>0.40886109424049</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>44</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>0.22938012703800001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>46</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>0.51646583156179005</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>48</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>0.56220920964243004</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>50</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>0.11405100166468</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>52</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>0.33746207997914002</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>54</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>56</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>58</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>4.9284701955470002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>40</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>0.31681629229743002</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>61</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>63</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>65</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>67</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0.36672642807699002</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>69</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>0.17077607496423999</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>71</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>0.36376361409244001</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>73</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>75</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0.23100196192351</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>77</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>79</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>81</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>83</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>0.27943958863106</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>85</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>0.28452218141928998</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>87</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0.28106232718020002</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>40</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>0.28247031089824998</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>90</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>5.40909312245E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>92</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>1.8381961240619998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>94</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>96</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0.32092763109901001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>98</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>3.3436555326680002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>100</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>2.8877310362000002E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
         <v>40</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>7.6208594364990001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>103</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0.36248780767207001</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>105</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>107</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>109</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>0.23587099610055001</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>111</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>0.24124679983648001</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>113</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>0.11164560022193</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>115</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>0.36359149106242999</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>117</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>0.34068872344297002</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>119</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>0.25929373111005</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>121</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>0.36136458109963998</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>123</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>125</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>0.17481730183735</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>127</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>0.25950416517706998</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>129</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>0.27240503565405</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>131</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>0.21322051919707999</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
       <c r="B61" s="39" t="s">
         <v>133</v>
@@ -4946,7 +4946,7 @@
         <v>0.26634472936763998</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="63"/>
       <c r="B62" s="64" t="s">
         <v>134</v>
@@ -5000,25 +5000,25 @@
         <v>0.23640415085370001</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="63"/>
       <c r="B63" s="69" t="s">
         <v>135</v>
       </c>
       <c r="C63" s="70">
-        <v>2.1690721649484499</v>
+        <v>2.1649484536082499</v>
       </c>
       <c r="D63" s="71">
-        <v>7.83608247422681</v>
+        <v>7.8154639175257801</v>
       </c>
       <c r="E63" s="66">
-        <v>21.230927835051499</v>
+        <v>21.2144329896907</v>
       </c>
       <c r="F63" s="71">
-        <v>34.567010309278302</v>
+        <v>34.550515463917499</v>
       </c>
       <c r="G63" s="67">
-        <v>42.249484536082498</v>
+        <v>42.231958762886599</v>
       </c>
       <c r="H63" s="70">
         <v>5.5619594594594597</v>
@@ -5054,25 +5054,25 @@
         <v>4.1319552257219998E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="74"/>
       <c r="B64" s="75" t="s">
         <v>136</v>
       </c>
       <c r="C64" s="76">
-        <v>2.6285714285714299</v>
+        <v>2.6380952380952398</v>
       </c>
       <c r="D64" s="77">
-        <v>7.4619047619047603</v>
+        <v>7.4666666666666703</v>
       </c>
       <c r="E64" s="71">
         <v>22.6619047619048</v>
       </c>
       <c r="F64" s="77">
-        <v>44.280952380952399</v>
+        <v>44.185714285714297</v>
       </c>
       <c r="G64" s="73">
-        <v>50.090476190476203</v>
+        <v>49.985714285714302</v>
       </c>
       <c r="H64" s="76">
         <v>4.6348399999999996</v>
@@ -5108,25 +5108,25 @@
         <v>3.7759744758000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="74"/>
       <c r="B65" s="69" t="s">
         <v>137</v>
       </c>
       <c r="C65" s="80">
-        <v>5.3772727272727296</v>
+        <v>5.35</v>
       </c>
       <c r="D65" s="81">
-        <v>21.031818181818199</v>
+        <v>20.936363636363598</v>
       </c>
       <c r="E65" s="81">
-        <v>49.145454545454598</v>
+        <v>49.072727272727299</v>
       </c>
       <c r="F65" s="81">
-        <v>33.654545454545499</v>
+        <v>33.6727272727273</v>
       </c>
       <c r="G65" s="82">
-        <v>41.886363636363598</v>
+        <v>41.909090909090899</v>
       </c>
       <c r="H65" s="80">
         <v>8.0873448275862092</v>
@@ -5162,25 +5162,25 @@
         <v>5.640807974743E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="74"/>
       <c r="B66" s="83" t="s">
         <v>138</v>
       </c>
       <c r="C66" s="84">
-        <v>10.8118881118881</v>
+        <v>10.8090909090909</v>
       </c>
       <c r="D66" s="85">
-        <v>22.3853146853147</v>
+        <v>22.371328671328701</v>
       </c>
       <c r="E66" s="85">
-        <v>39.3272727272727</v>
+        <v>39.316083916083898</v>
       </c>
       <c r="F66" s="85">
-        <v>36.569230769230799</v>
+        <v>36.558041958041997</v>
       </c>
       <c r="G66" s="86">
-        <v>43.968531468531502</v>
+        <v>43.956643356643397</v>
       </c>
       <c r="H66" s="84">
         <v>14.089903225806401</v>
@@ -5216,7 +5216,7 @@
         <v>0.14023568675685</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="74"/>
       <c r="B67" s="69" t="s">
         <v>139</v>
@@ -5270,7 +5270,7 @@
         <v>0.22245479675915</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="74"/>
       <c r="B68" s="69" t="s">
         <v>140</v>
@@ -5324,7 +5324,7 @@
         <v>0.25947730721329998</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="74"/>
       <c r="B69" s="69" t="s">
         <v>141</v>
@@ -5378,7 +5378,7 @@
         <v>0.28561428661781002</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="74"/>
       <c r="B70" s="69" t="s">
         <v>142</v>
@@ -5432,7 +5432,7 @@
         <v>0.30608950100068999</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="74"/>
       <c r="B71" s="69" t="s">
         <v>143</v>
@@ -5486,7 +5486,7 @@
         <v>0.26634472936763998</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="74"/>
       <c r="B72" s="69" t="s">
         <v>144</v>
@@ -5540,7 +5540,7 @@
         <v>0.27450110471312</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="74"/>
       <c r="B73" s="69" t="s">
         <v>145</v>
@@ -5594,7 +5594,7 @@
         <v>0.21551391995222999</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="74"/>
       <c r="B74" s="69" t="s">
         <v>145</v>
@@ -5648,7 +5648,7 @@
         <v>9.0665252646090003E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="74"/>
       <c r="B75" s="69" t="s">
         <v>146</v>
@@ -5702,25 +5702,25 @@
         <v>0.19498671269921999</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="74"/>
       <c r="B76" s="88" t="s">
         <v>147</v>
       </c>
       <c r="C76" s="89">
-        <v>2.22857142857143</v>
+        <v>2.1428571428571401</v>
       </c>
       <c r="D76" s="90">
-        <v>13.5714285714286</v>
+        <v>13.271428571428601</v>
       </c>
       <c r="E76" s="81">
-        <v>41.228571428571399</v>
+        <v>41</v>
       </c>
       <c r="F76" s="90">
-        <v>37.1142857142857</v>
+        <v>37.171428571428599</v>
       </c>
       <c r="G76" s="82">
-        <v>44.7</v>
+        <v>44.771428571428601</v>
       </c>
       <c r="H76" s="89">
         <v>4.7977499999999997</v>
@@ -5756,7 +5756,7 @@
         <v>3.8364099472040003E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="74"/>
       <c r="B77" s="69" t="s">
         <v>148</v>
@@ -5810,7 +5810,7 @@
         <v>2.122828135668E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="74"/>
       <c r="B78" s="69" t="s">
         <v>148</v>
@@ -5864,7 +5864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="74"/>
       <c r="B79" s="83" t="s">
         <v>149</v>
@@ -5918,7 +5918,7 @@
         <v>1.8075824470749999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="74"/>
       <c r="B80" s="69" t="s">
         <v>150</v>
@@ -5972,7 +5972,7 @@
         <v>0.25064923388214</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="74"/>
       <c r="B81" s="69" t="s">
         <v>151</v>
@@ -6026,7 +6026,7 @@
         <v>4.694833929423E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="74"/>
       <c r="B82" s="69" t="s">
         <v>152</v>
@@ -6080,25 +6080,25 @@
         <v>0.23462351547515001</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="74"/>
       <c r="B83" s="69" t="s">
         <v>153</v>
       </c>
       <c r="C83" s="70">
-        <v>1.82643678160919</v>
+        <v>1.8218390804597699</v>
       </c>
       <c r="D83" s="71">
-        <v>7.0229885057471302</v>
+        <v>7</v>
       </c>
       <c r="E83" s="85">
-        <v>20.179310344827599</v>
+        <v>20.160919540229902</v>
       </c>
       <c r="F83" s="71">
-        <v>34.647126436781598</v>
+        <v>34.628735632183897</v>
       </c>
       <c r="G83" s="86">
-        <v>42.297701149425301</v>
+        <v>42.278160919540198</v>
       </c>
       <c r="H83" s="70">
         <v>4.3429642857142898</v>
@@ -6134,7 +6134,7 @@
         <v>3.9912355497970002E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="74"/>
       <c r="B84" s="88" t="s">
         <v>154</v>
@@ -6188,7 +6188,7 @@
         <v>0.32915477030415002</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="74"/>
       <c r="B85" s="93" t="s">
         <v>155</v>
@@ -6242,7 +6242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="74"/>
       <c r="B86" s="69" t="s">
         <v>156</v>
@@ -6296,7 +6296,7 @@
         <v>0.16220365529333999</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="74"/>
       <c r="B87" s="69" t="s">
         <v>157</v>
@@ -6350,7 +6350,7 @@
         <v>7.6540543903600003E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="74"/>
       <c r="B88" s="69" t="s">
         <v>158</v>
@@ -6404,25 +6404,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="74"/>
       <c r="B89" s="69" t="s">
         <v>159</v>
       </c>
       <c r="C89" s="80">
-        <v>1.51428571428572</v>
+        <v>1.49714285714286</v>
       </c>
       <c r="D89" s="81">
-        <v>5.6057142857142903</v>
+        <v>5.5457142857142898</v>
       </c>
       <c r="E89" s="81">
-        <v>21.6314285714286</v>
+        <v>21.5857142857143</v>
       </c>
       <c r="F89" s="81">
-        <v>37.840000000000003</v>
+        <v>37.851428571428599</v>
       </c>
       <c r="G89" s="82">
-        <v>44.937142857142902</v>
+        <v>44.9514285714286</v>
       </c>
       <c r="H89" s="80">
         <v>1.7549142857142901</v>
@@ -6458,25 +6458,25 @@
         <v>1.192257430104E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="74"/>
       <c r="B90" s="83" t="s">
         <v>160</v>
       </c>
       <c r="C90" s="84">
-        <v>0.29749999999999999</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="D90" s="85">
-        <v>0.61250000000000004</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="E90" s="85">
         <v>1.81</v>
       </c>
       <c r="F90" s="85">
-        <v>31.98</v>
+        <v>31.93</v>
       </c>
       <c r="G90" s="86">
-        <v>39.935000000000002</v>
+        <v>39.880000000000003</v>
       </c>
       <c r="H90" s="84">
         <v>1.3317777777777799</v>
@@ -6512,7 +6512,7 @@
         <v>6.9292891263700003E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="74"/>
       <c r="B91" s="69" t="s">
         <v>161</v>
@@ -6566,7 +6566,7 @@
         <v>0.30095160697824003</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="74"/>
       <c r="B92" s="69" t="s">
         <v>162</v>
@@ -6620,7 +6620,7 @@
         <v>0.12700807169031</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="74"/>
       <c r="B93" s="69" t="s">
         <v>163</v>
@@ -6674,7 +6674,7 @@
         <v>0.19498671269921999</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="74"/>
       <c r="B94" s="69" t="s">
         <v>164</v>
@@ -6728,7 +6728,7 @@
         <v>7.8435738681919998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="74"/>
       <c r="B95" s="69" t="s">
         <v>165</v>
@@ -6782,7 +6782,7 @@
         <v>0.28883790982099999</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="74"/>
       <c r="B96" s="69" t="s">
         <v>166</v>
@@ -6836,7 +6836,7 @@
         <v>3.0384778279449999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="74"/>
       <c r="B97" s="88" t="s">
         <v>167</v>
@@ -6890,7 +6890,7 @@
         <v>0.2547259074196</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="74"/>
       <c r="B98" s="83" t="s">
         <v>168</v>
@@ -6944,7 +6944,7 @@
         <v>9.6736208172419999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="95"/>
       <c r="B99" s="96"/>
       <c r="C99" s="97"/>
@@ -6964,7 +6964,7 @@
       <c r="Q99" s="97"/>
       <c r="R99" s="97"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>169</v>
       </c>
@@ -6985,7 +6985,7 @@
       <c r="Q100" s="99"/>
       <c r="R100" s="99"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>170</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="Q101" s="99"/>
       <c r="R101" s="99"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>171</v>
       </c>
@@ -7027,7 +7027,7 @@
       <c r="Q102" s="99"/>
       <c r="R102" s="99"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>172</v>
       </c>
@@ -7048,7 +7048,7 @@
       <c r="Q103" s="99"/>
       <c r="R103" s="99"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>173</v>
       </c>
@@ -7069,7 +7069,7 @@
       <c r="Q104" s="99"/>
       <c r="R104" s="99"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>174</v>
       </c>
@@ -7090,7 +7090,7 @@
       <c r="Q105" s="99"/>
       <c r="R105" s="99"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B106" s="101"/>
       <c r="C106" s="99"/>
       <c r="D106" s="99"/>
@@ -7109,7 +7109,7 @@
       <c r="Q106" s="99"/>
       <c r="R106" s="99"/>
     </row>
-    <row r="107" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="102" t="s">
         <v>175</v>
       </c>
@@ -7130,7 +7130,7 @@
       <c r="Q107" s="99"/>
       <c r="R107" s="99"/>
     </row>
-    <row r="108" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="102"/>
       <c r="C108" s="99"/>
       <c r="D108" s="99"/>
@@ -7149,7 +7149,7 @@
       <c r="Q108" s="99"/>
       <c r="R108" s="99"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>177</v>
       </c>
@@ -7170,7 +7170,7 @@
       <c r="Q109" s="99"/>
       <c r="R109" s="99"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>178</v>
       </c>
@@ -7191,7 +7191,7 @@
       <c r="Q110" s="99"/>
       <c r="R110" s="99"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B111" s="104" t="s">
         <v>179</v>
       </c>
@@ -7212,7 +7212,7 @@
       <c r="Q111" s="99"/>
       <c r="R111" s="99"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>176</v>
       </c>
@@ -7233,7 +7233,7 @@
       <c r="Q112" s="99"/>
       <c r="R112" s="99"/>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="99"/>
       <c r="D113" s="99"/>
@@ -7252,7 +7252,7 @@
       <c r="Q113" s="99"/>
       <c r="R113" s="99"/>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="99"/>
       <c r="D114" s="99"/>
@@ -7273,11 +7273,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{D47060B3-0FDD-4AA4-9C48-7BC685F72FF1}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E48E5B16-9596-47E7-82FB-F7D3A1C301D1}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{5965F736-A66A-4075-B04F-9CA9387B62AE}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{40AC5B72-9BE9-40DF-BB7B-40F71D2E6212}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{568D20B9-78C4-4F66-A913-72C54248BA9C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{12C4F0AA-3895-4CF9-95BF-AABEC43A2A9B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5FFFFB76-1FAB-4348-A43E-909B1996DC92}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{D537DFA3-6B8A-4ACF-AFDC-000763223397}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{F95D0467-83C4-4B03-A4C9-D862E7F5446F}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{E1E0769E-3BD7-46C3-886F-FCBA13FE79EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70A22203-A97F-412F-98F6-6BB606DE16CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2EA0781-3598-427E-B95E-072291C999DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B48CE12-132B-4E24-8433-ACE0785E1888}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{9C727FAC-2429-46AC-8713-7310416BDD55}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,13 +716,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <u/>
@@ -807,15 +800,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD42C2D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FFD42C2D"/>
       </right>
@@ -866,6 +850,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFD42C2D"/>
       </left>
@@ -873,17 +866,6 @@
         <color rgb="FFD42C2D"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FFD42C2D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD42C2D"/>
-      </top>
       <bottom style="medium">
         <color rgb="FFD42C2D"/>
       </bottom>
@@ -916,6 +898,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFD42C2D"/>
       </left>
@@ -936,7 +929,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -969,9 +962,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -990,125 +980,122 @@
     <xf numFmtId="39" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1116,17 +1103,17 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1134,25 +1121,22 @@
     <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1173,17 +1157,20 @@
     <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1191,9 +1178,6 @@
     <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1212,10 +1196,10 @@
     <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1232,10 +1216,9 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1551,7 +1534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE81B6-1737-47B7-842F-B70EFC364DE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DC665E-30F3-49C9-9273-B81498349DDF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1563,7 +1546,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="103" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="100" bestFit="1" customWidth="1"/>
     <col min="4" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1573,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="3"/>
@@ -1607,7 +1590,7 @@
       <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -1616,7 +1599,7 @@
       <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -1625,10 +1608,10 @@
       <c r="L2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
@@ -1640,5644 +1623,5643 @@
       <c r="Q2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>31.1</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>52.9</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>78</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>51.3</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="18">
         <v>55.6</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>27.934000000000001</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>30.193999999999999</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="18">
         <v>25.687000000000001</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <v>34.134</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <v>33.171999999999997</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="18">
         <v>35.158000000000001</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="19">
         <v>17625.27</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="16">
         <v>0.58599999999999997</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="17">
         <v>0.40699999999999997</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="17">
         <v>0.57699999999999996</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>15.4</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="23">
         <v>38</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>63.5</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="23">
         <v>53.3</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>58.5</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="22">
         <v>9.4819999999999993</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="23">
         <v>11.12</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="24">
         <v>8.0890000000000004</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="22">
         <v>13.861000000000001</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="23">
         <v>12.662000000000001</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="24">
         <v>14.807</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="25">
         <v>41230.699999999997</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="22">
         <v>0.69299999999999995</v>
       </c>
-      <c r="P4" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="25">
+      <c r="P4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="23">
         <v>0.63300000000000001</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>36.1</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <v>58</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>78.099999999999994</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="28">
         <v>54.6</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="29">
         <v>60.2</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="27">
         <v>26.515999999999998</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="28">
         <v>32.972999999999999</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="29">
         <v>21.016999999999999</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="27">
         <v>34.728999999999999</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="28">
         <v>32.366999999999997</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="29">
         <v>36.966999999999999</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="30">
         <v>33901.01</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="27">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="28">
         <v>0.42399999999999999</v>
       </c>
-      <c r="Q5" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="31">
+      <c r="Q5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="29">
         <v>8.1257135166810004E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>32.4</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="28">
         <v>54.7</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>81</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="28">
         <v>44.9</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="29">
         <v>49.8</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="27">
         <v>24.843</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="28">
         <v>24.308</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="29">
         <v>25.265999999999998</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="27">
         <v>33.92</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="28">
         <v>26.814</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="29">
         <v>38.081000000000003</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="30">
         <v>6646.6</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="27">
         <v>0.51400000000000001</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="28">
         <v>0.372</v>
       </c>
-      <c r="Q6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="31">
+      <c r="Q6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="29">
         <v>8.4359190863710007E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>70.099999999999994</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="28">
         <v>89.1</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <v>97.3</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="28">
         <v>38.5</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="29">
         <v>46.2</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="27">
         <v>64.838999999999999</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="28">
         <v>68.736999999999995</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="29">
         <v>61.185000000000002</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <v>63.945999999999998</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="28">
         <v>63.969000000000001</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="29">
         <v>63.924999999999997</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="30">
         <v>4113.38</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="27">
         <v>0.51200000000000001</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="28">
         <v>0.377</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="28">
         <v>0.50800000000000001</v>
       </c>
-      <c r="R7" s="31">
+      <c r="R7" s="29">
         <v>0.23126479919816001</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>74.5</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="28">
         <v>88.6</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>96.1</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="28">
         <v>50.5</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="29">
         <v>56.1</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="27">
         <v>68.484999999999999</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="28">
         <v>72.052999999999997</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="29">
         <v>64.712000000000003</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="27">
         <v>68.09</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="28">
         <v>72.614000000000004</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="29">
         <v>63.338000000000001</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="30">
         <v>2933.89</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="27">
         <v>0.44600000000000001</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="28">
         <v>0.3</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="28">
         <v>0.441</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="R8" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="27">
         <v>15.6</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="28">
         <v>33.299999999999997</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <v>57.3</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="28">
         <v>59.1</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="29">
         <v>63.7</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="27">
         <v>10.922000000000001</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="28">
         <v>12.819000000000001</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="29">
         <v>9.0069999999999997</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="27">
         <v>16.423999999999999</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="28">
         <v>19.082999999999998</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="29">
         <v>14.201000000000001</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="30">
         <v>31175.01</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="27">
         <v>0.61499999999999999</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="28">
         <v>0.40200000000000002</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="28">
         <v>0.57399999999999995</v>
       </c>
-      <c r="R9" s="31" t="s">
+      <c r="R9" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="27">
         <v>20.5</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="28">
         <v>40</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>61.6</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="28">
         <v>63</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="29">
         <v>68.2</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="27">
         <v>7.9939999999999998</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="28">
         <v>8.6720000000000006</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="29">
         <v>7.4219999999999997</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="27">
         <v>9.2279999999999998</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="28">
         <v>7.843</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="29">
         <v>10.196</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="30">
         <v>43455.82</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="27">
         <v>0.71299999999999997</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="28">
         <v>0.47099999999999997</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="28">
         <v>0.64800000000000002</v>
       </c>
-      <c r="R10" s="31" t="s">
+      <c r="R10" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>64.3</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="23">
         <v>81</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>93.2</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="23">
         <v>51.5</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="24">
         <v>56.4</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="22">
         <v>55.683999999999997</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="23">
         <v>57.808</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="24">
         <v>53.944000000000003</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="22">
         <v>58.469000000000001</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="23">
         <v>56.905999999999999</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="24">
         <v>59.847999999999999</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="30">
         <v>9882.64</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="22">
         <v>0.56499999999999995</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="23">
         <v>0.39</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11" s="23">
         <v>0.55700000000000005</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="24">
         <v>0.23168507336234001</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="32">
         <v>39.799999999999997</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="33">
         <v>64.5</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <v>85</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>50.3</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="34">
         <v>51.1</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="32">
         <v>35.491999999999997</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="33">
         <v>37.631</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="34">
         <v>33.283000000000001</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="32">
         <v>42.093000000000004</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="33">
         <v>39.979999999999997</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="34">
         <v>43.811999999999998</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="35">
         <v>5688.85</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="32">
         <v>0.59299999999999997</v>
       </c>
-      <c r="P12" s="35">
+      <c r="P12" s="33">
         <v>0.45800000000000002</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12" s="33">
         <v>0.58699999999999997</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="34">
         <v>0.10979728553595999</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="38">
         <v>39.979999999999997</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="39">
         <v>60.01</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="40">
         <v>79.11</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="39">
         <v>51.7</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="40">
         <v>56.58</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="38">
         <v>33.219099999999997</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="39">
         <v>35.631500000000003</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="40">
         <v>30.961200000000002</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="38">
         <v>37.489400000000003</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="39">
         <v>36.540999999999997</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="40">
         <v>38.033299999999997</v>
       </c>
-      <c r="N13" s="44">
+      <c r="N13" s="41">
         <v>20604.6544017171</v>
       </c>
-      <c r="O13" s="40">
+      <c r="O13" s="38">
         <v>0.58340000000000003</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="39">
         <v>0.40011111111110997</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="39">
         <v>0.56562500000000004</v>
       </c>
-      <c r="R13" s="45">
+      <c r="R13" s="42">
         <v>0.14767269682539999</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="44">
         <v>62.1</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="45">
         <v>86.2</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <v>96.8</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="45">
         <v>37.5</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="29">
         <v>45</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="44">
         <v>68.608999999999995</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="45">
         <v>70.167000000000002</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="29">
         <v>66.980999999999995</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="44">
         <v>70.995000000000005</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="45">
         <v>68.527000000000001</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="29">
         <v>73.718000000000004</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="46">
         <v>1716.6</v>
       </c>
-      <c r="O14" s="47">
+      <c r="O14" s="44">
         <v>0.42599999999999999</v>
       </c>
-      <c r="P14" s="48">
+      <c r="P14" s="45">
         <v>0.30199999999999999</v>
       </c>
-      <c r="Q14" s="48">
+      <c r="Q14" s="45">
         <v>0.42199999999999999</v>
       </c>
-      <c r="R14" s="50">
+      <c r="R14" s="47">
         <v>0.40886109424049</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="27">
         <v>23</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="28">
         <v>46.7</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <v>76</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="28">
         <v>42.2</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="29">
         <v>47.9</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="27">
         <v>19.794</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="28">
         <v>22.657</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="29">
         <v>17.260000000000002</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="27">
         <v>18.734999999999999</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="28">
         <v>19.675999999999998</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="29">
         <v>17.933</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="30">
         <v>9351.83</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="27">
         <v>0.57599999999999996</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="28">
         <v>0.39300000000000002</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="28">
         <v>0.56899999999999995</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="29">
         <v>0.22938012703800001</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="27">
         <v>65.7</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="28">
         <v>85.8</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <v>96.2</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="28">
         <v>43</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="29">
         <v>49.2</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="27">
         <v>63.865000000000002</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="28">
         <v>64.251000000000005</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="29">
         <v>63.551000000000002</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="27">
         <v>65.075999999999993</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="28">
         <v>64.265000000000001</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="29">
         <v>65.832999999999998</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="30">
         <v>2512.06</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="27">
         <v>0.40400000000000003</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="28">
         <v>0.24</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="28">
         <v>0.40100000000000002</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="29">
         <v>0.51646583156179005</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="49">
         <v>30.8</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="50">
         <v>62.8</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>88.8</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="50">
         <v>37.4</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="18">
         <v>44.9</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="49">
         <v>30.664999999999999</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="50">
         <v>31.219000000000001</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="18">
         <v>30.280999999999999</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="49">
         <v>35.384999999999998</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="50">
         <v>33.591999999999999</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="18">
         <v>36.85</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N17" s="51">
         <v>4894.26</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="49">
         <v>0.39400000000000002</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="50">
         <v>0.251</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="50">
         <v>0.379</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="18">
         <v>0.56220920964243004</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="52">
+      <c r="C18" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="49">
         <v>47.615000000000002</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="50">
         <v>51.448</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="18">
         <v>43.945999999999998</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="49">
         <v>53.445</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="50">
         <v>53.856000000000002</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="18">
         <v>52.978999999999999</v>
       </c>
-      <c r="N18" s="53">
+      <c r="N18" s="51">
         <v>11203.42</v>
       </c>
-      <c r="O18" s="52">
+      <c r="O18" s="49">
         <v>0.57099999999999995</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="50">
         <v>0.432</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q18" s="50">
         <v>0.56399999999999995</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="18">
         <v>0.11405100166468</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>78.900000000000006</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="23">
         <v>92.1</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="24">
         <v>97.7</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="23">
         <v>44.7</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="24">
         <v>51.1</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="22">
         <v>59.847000000000001</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="23">
         <v>60.664999999999999</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="24">
         <v>59.073</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="22">
         <v>61.521000000000001</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="23">
         <v>60.636000000000003</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="24">
         <v>62.643999999999998</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="30">
         <v>3161.82</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="22">
         <v>0.47899999999999998</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19" s="23">
         <v>0.34100000000000003</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="23">
         <v>0.47299999999999998</v>
       </c>
-      <c r="R19" s="26">
+      <c r="R19" s="24">
         <v>0.33746207997914002</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="52">
+      <c r="C20" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="49">
         <v>33.54</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="50">
         <v>39.280999999999999</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="18">
         <v>29.465</v>
       </c>
-      <c r="K20" s="52">
+      <c r="K20" s="49">
         <v>41.796999999999997</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="50">
         <v>39.600999999999999</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="18">
         <v>43.686</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N20" s="51">
         <v>51401.23</v>
       </c>
-      <c r="O20" s="52">
+      <c r="O20" s="49">
         <v>0.59599999999999997</v>
       </c>
-      <c r="P20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="19">
+      <c r="P20" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="50">
         <v>0.52</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="49">
         <v>2.5</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="50">
         <v>8.1</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>31.2</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="50">
         <v>38</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="18">
         <v>44.4</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="49">
         <v>1.161</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="50">
         <v>1.9590000000000001</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="18">
         <v>0.72799999999999998</v>
       </c>
-      <c r="K21" s="52">
+      <c r="K21" s="49">
         <v>1.7110000000000001</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="50">
         <v>2.0579999999999998</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="18">
         <v>1.49</v>
       </c>
-      <c r="N21" s="53">
+      <c r="N21" s="51">
         <v>60932.63</v>
       </c>
-      <c r="O21" s="52">
+      <c r="O21" s="49">
         <v>0.70599999999999996</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="50">
         <v>0.55400000000000005</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="50">
         <v>0.66600000000000004</v>
       </c>
-      <c r="R21" s="20" t="s">
+      <c r="R21" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="32">
         <v>15.7</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="33">
         <v>45</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="34">
         <v>79.7</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="33">
         <v>40.700000000000003</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="34">
         <v>47.9</v>
       </c>
-      <c r="H22" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="37">
+      <c r="H22" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="35">
         <v>15129.32</v>
       </c>
-      <c r="O22" s="34">
+      <c r="O22" s="32">
         <v>0.61799999999999999</v>
       </c>
-      <c r="P22" s="35">
+      <c r="P22" s="33">
         <v>0.503</v>
       </c>
-      <c r="Q22" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="36">
+      <c r="Q22" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="34">
         <v>4.9284701955470002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="38">
         <v>39.814285714285703</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="39">
         <v>60.957142857142898</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="40">
         <v>80.914285714285697</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="39">
         <v>40.5</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="40">
         <v>47.2</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="38">
         <v>40.637</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="39">
         <v>42.705874999999999</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="40">
         <v>38.910625000000003</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23" s="38">
         <v>43.583125000000003</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="39">
         <v>42.776375000000002</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="40">
         <v>44.391624999999998</v>
       </c>
-      <c r="N23" s="44">
+      <c r="N23" s="41">
         <v>5791.5126658300796</v>
       </c>
-      <c r="O23" s="40">
+      <c r="O23" s="38">
         <v>0.53</v>
       </c>
-      <c r="P23" s="41">
+      <c r="P23" s="39">
         <v>0.377</v>
       </c>
-      <c r="Q23" s="41">
+      <c r="Q23" s="39">
         <v>0.49925000000000003</v>
       </c>
-      <c r="R23" s="45">
+      <c r="R23" s="42">
         <v>0.31681629229743002</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="44">
         <v>18.600000000000001</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="45">
         <v>39.5</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="29">
         <v>68.599999999999994</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="45">
         <v>45.3</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="29">
         <v>50.4</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="44">
         <v>13.907999999999999</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="45">
         <v>16.622</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="29">
         <v>12.298</v>
       </c>
-      <c r="K24" s="47">
+      <c r="K24" s="44">
         <v>19.193999999999999</v>
       </c>
-      <c r="L24" s="48">
+      <c r="L24" s="45">
         <v>17.152999999999999</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="29">
         <v>20.645</v>
       </c>
-      <c r="N24" s="49">
+      <c r="N24" s="46">
         <v>12735.1</v>
       </c>
-      <c r="O24" s="47">
+      <c r="O24" s="44">
         <v>0.55800000000000005</v>
       </c>
-      <c r="P24" s="48">
+      <c r="P24" s="45">
         <v>0.31</v>
       </c>
-      <c r="Q24" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="50" t="s">
+      <c r="Q24" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="47" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="27">
         <v>19.100000000000001</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="28">
         <v>43.8</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="29">
         <v>78.5</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="28">
         <v>41.6</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="29">
         <v>47.6</v>
       </c>
-      <c r="H25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="32">
+      <c r="H25" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="30">
         <v>30493.16</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="27">
         <v>0.50900000000000001</v>
       </c>
-      <c r="P25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="30">
+      <c r="P25" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="28">
         <v>0.47</v>
       </c>
-      <c r="R25" s="31" t="s">
+      <c r="R25" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="29">
+      <c r="C26" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="27">
         <v>32.578000000000003</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="28">
         <v>33.143999999999998</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="29">
         <v>32.085000000000001</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="27">
         <v>38.904000000000003</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="28">
         <v>38.015000000000001</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="29">
         <v>39.659999999999997</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="30">
         <v>4000.94</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="27">
         <v>0.49199999999999999</v>
       </c>
-      <c r="P26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="30">
+      <c r="P26" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="28">
         <v>0.48299999999999998</v>
       </c>
-      <c r="R26" s="31" t="s">
+      <c r="R26" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="27">
         <v>27</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="28">
         <v>65</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <v>90.9</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="28">
         <v>35</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="29">
         <v>43</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="27">
         <v>18.895</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="28">
         <v>18.757000000000001</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="29">
         <v>19.013000000000002</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="27">
         <v>24.428999999999998</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="28">
         <v>24.061</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="29">
         <v>24.748999999999999</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N27" s="30">
         <v>4926.62</v>
       </c>
-      <c r="O27" s="29">
+      <c r="O27" s="27">
         <v>0.498</v>
       </c>
-      <c r="P27" s="30">
+      <c r="P27" s="28">
         <v>0.36299999999999999</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="Q27" s="28">
         <v>0.496</v>
       </c>
-      <c r="R27" s="31">
+      <c r="R27" s="29">
         <v>0.36672642807699002</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="27">
         <v>36.1</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="28">
         <v>70.099999999999994</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="29">
         <v>91.3</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="28">
         <v>38.700000000000003</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="29">
         <v>46.7</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="27">
         <v>24.393999999999998</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="28">
         <v>26.378</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="29">
         <v>22.463999999999999</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="27">
         <v>26.88</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="28">
         <v>26.925000000000001</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="29">
         <v>26.835999999999999</v>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="30">
         <v>10670.86</v>
       </c>
-      <c r="O28" s="29">
+      <c r="O28" s="27">
         <v>0.57499999999999996</v>
       </c>
-      <c r="P28" s="30">
+      <c r="P28" s="28">
         <v>0.42599999999999999</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="Q28" s="28">
         <v>0.56100000000000005</v>
       </c>
-      <c r="R28" s="31">
+      <c r="R28" s="29">
         <v>0.17077607496423999</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="C29" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="27">
         <v>76.424000000000007</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="28">
         <v>77.406000000000006</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="29">
         <v>75.492000000000004</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="27">
         <v>79.962000000000003</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="28">
         <v>79.864000000000004</v>
       </c>
-      <c r="M29" s="31">
+      <c r="M29" s="29">
         <v>80.057000000000002</v>
       </c>
-      <c r="N29" s="32">
+      <c r="N29" s="30">
         <v>2877.99</v>
       </c>
-      <c r="O29" s="29">
+      <c r="O29" s="27">
         <v>0.501</v>
       </c>
-      <c r="P29" s="30">
+      <c r="P29" s="28">
         <v>0.36699999999999999</v>
       </c>
-      <c r="Q29" s="30">
+      <c r="Q29" s="28">
         <v>0.497</v>
       </c>
-      <c r="R29" s="31">
+      <c r="R29" s="29">
         <v>0.36376361409244001</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="27">
         <v>0.1</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="28">
         <v>1.8</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <v>13.5</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="28">
         <v>36.799999999999997</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="29">
         <v>44.6</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="27">
         <v>2.4E-2</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="28">
         <v>2.7E-2</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="29">
         <v>2.3E-2</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="27">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="28">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="29">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N30" s="32">
+      <c r="N30" s="30">
         <v>47211.519999999997</v>
       </c>
-      <c r="O30" s="29">
+      <c r="O30" s="27">
         <v>0.80200000000000005</v>
       </c>
-      <c r="P30" s="30">
+      <c r="P30" s="28">
         <v>0.66600000000000004</v>
       </c>
-      <c r="Q30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" s="31" t="s">
+      <c r="Q30" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="27">
         <v>52</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="28">
         <v>78</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <v>92.2</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="28">
         <v>43.7</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="29">
         <v>50.8</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="27">
         <v>37.375999999999998</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="28">
         <v>39.226999999999997</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="29">
         <v>35.805999999999997</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="27">
         <v>39.683999999999997</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L31" s="28">
         <v>38.555999999999997</v>
       </c>
-      <c r="M31" s="31">
+      <c r="M31" s="29">
         <v>40.694000000000003</v>
       </c>
-      <c r="N31" s="32">
+      <c r="N31" s="30">
         <v>6165.31</v>
       </c>
-      <c r="O31" s="29">
+      <c r="O31" s="27">
         <v>0.53400000000000003</v>
       </c>
-      <c r="P31" s="30">
+      <c r="P31" s="28">
         <v>0.40200000000000002</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="28">
         <v>0.52900000000000003</v>
       </c>
-      <c r="R31" s="31">
+      <c r="R31" s="29">
         <v>0.23100196192351</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="27">
         <v>0.5</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="28">
         <v>1.2</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="29">
         <v>6.7</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="28">
         <v>32.1</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="29">
         <v>39.1</v>
       </c>
-      <c r="H32" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="O32" s="29">
+      <c r="H32" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="27">
         <v>0.78500000000000003</v>
       </c>
-      <c r="P32" s="30">
+      <c r="P32" s="28">
         <v>0.66100000000000003</v>
       </c>
-      <c r="Q32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R32" s="31" t="s">
+      <c r="Q32" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="29">
+      <c r="C33" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="27">
         <v>60.988</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="28">
         <v>66.491</v>
       </c>
-      <c r="J33" s="31">
+      <c r="J33" s="29">
         <v>58.73</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="27">
         <v>64.929000000000002</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="28">
         <v>62.460999999999999</v>
       </c>
-      <c r="M33" s="31">
+      <c r="M33" s="29">
         <v>66.269000000000005</v>
       </c>
-      <c r="N33" s="32">
+      <c r="N33" s="30">
         <v>7898.75</v>
       </c>
-      <c r="O33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="31" t="s">
+      <c r="O33" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="49">
         <v>67.3</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="50">
         <v>86.5</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <v>96.6</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="50">
         <v>44.1</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="18">
         <v>49.6</v>
       </c>
-      <c r="H34" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="53">
+      <c r="H34" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="51">
         <v>6887.44</v>
       </c>
-      <c r="O34" s="52">
+      <c r="O34" s="49">
         <v>0.38500000000000001</v>
       </c>
-      <c r="P34" s="19">
+      <c r="P34" s="50">
         <v>0.245</v>
       </c>
-      <c r="Q34" s="19">
+      <c r="Q34" s="50">
         <v>0.376</v>
       </c>
-      <c r="R34" s="20" t="s">
+      <c r="R34" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="27">
         <v>15.3</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="28">
         <v>49.7</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="29">
         <v>86.2</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="28">
         <v>34.200000000000003</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="29">
         <v>42.4</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="27">
         <v>18.149000000000001</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="28">
         <v>16.228000000000002</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="29">
         <v>18.805</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="27">
         <v>17.509</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="28">
         <v>18.763999999999999</v>
       </c>
-      <c r="M35" s="31">
+      <c r="M35" s="29">
         <v>17</v>
       </c>
-      <c r="N35" s="32">
+      <c r="N35" s="30">
         <v>16958.52</v>
       </c>
-      <c r="O35" s="29">
+      <c r="O35" s="27">
         <v>0.50800000000000001</v>
       </c>
-      <c r="P35" s="30">
+      <c r="P35" s="28">
         <v>0.33600000000000002</v>
       </c>
-      <c r="Q35" s="30">
+      <c r="Q35" s="28">
         <v>0.48</v>
       </c>
-      <c r="R35" s="31">
+      <c r="R35" s="29">
         <v>0.27943958863106</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="27">
         <v>44.9</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="28">
         <v>74.3</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="29">
         <v>92.3</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="28">
         <v>40.5</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="29">
         <v>48.1</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="27">
         <v>43.356000000000002</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="28">
         <v>45.372</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="29">
         <v>41.463999999999999</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K36" s="27">
         <v>46.526000000000003</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="28">
         <v>45.631</v>
       </c>
-      <c r="M36" s="31">
+      <c r="M36" s="29">
         <v>47.328000000000003</v>
       </c>
-      <c r="N36" s="32">
+      <c r="N36" s="30">
         <v>5640.87</v>
       </c>
-      <c r="O36" s="29">
+      <c r="O36" s="27">
         <v>0.54900000000000004</v>
       </c>
-      <c r="P36" s="30">
+      <c r="P36" s="28">
         <v>0.41799999999999998</v>
       </c>
-      <c r="Q36" s="30">
+      <c r="Q36" s="28">
         <v>0.54400000000000004</v>
       </c>
-      <c r="R36" s="31">
+      <c r="R36" s="29">
         <v>0.28452218141928998</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="32">
         <v>42.1</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="33">
         <v>71.8</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="34">
         <v>91.1</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="33">
         <v>42.7</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="34">
         <v>49.5</v>
       </c>
-      <c r="H37" s="34">
+      <c r="H37" s="32">
         <v>39.03</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="33">
         <v>42.234999999999999</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="34">
         <v>35.930999999999997</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="32">
         <v>41.137999999999998</v>
       </c>
-      <c r="L37" s="35">
+      <c r="L37" s="33">
         <v>42.957999999999998</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="34">
         <v>39.411999999999999</v>
       </c>
-      <c r="N37" s="37">
+      <c r="N37" s="35">
         <v>6184.97</v>
       </c>
-      <c r="O37" s="34">
+      <c r="O37" s="32">
         <v>0.52500000000000002</v>
       </c>
-      <c r="P37" s="35">
+      <c r="P37" s="33">
         <v>0.39600000000000002</v>
       </c>
-      <c r="Q37" s="35">
+      <c r="Q37" s="33">
         <v>0.52</v>
       </c>
-      <c r="R37" s="36">
+      <c r="R37" s="34">
         <v>0.28106232718020002</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="40">
+      <c r="C38" s="38">
         <v>29.363636363636399</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="39">
         <v>52.881818181818197</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="40">
         <v>73.445454545454595</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="39">
         <v>39.518181818181802</v>
       </c>
-      <c r="G38" s="43">
+      <c r="G38" s="40">
         <v>46.527272727272702</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H38" s="38">
         <v>33.192909090909097</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I38" s="39">
         <v>34.716999999999999</v>
       </c>
-      <c r="J38" s="43">
+      <c r="J38" s="40">
         <v>32.010090909090898</v>
       </c>
-      <c r="K38" s="40">
+      <c r="K38" s="38">
         <v>36.290272727272701</v>
       </c>
-      <c r="L38" s="41">
+      <c r="L38" s="39">
         <v>35.856545454545497</v>
       </c>
-      <c r="M38" s="43">
+      <c r="M38" s="40">
         <v>36.608363636363599</v>
       </c>
-      <c r="N38" s="44">
+      <c r="N38" s="41">
         <v>7578.4089245772602</v>
       </c>
-      <c r="O38" s="40">
+      <c r="O38" s="38">
         <v>0.55546153846154001</v>
       </c>
-      <c r="P38" s="41">
+      <c r="P38" s="39">
         <v>0.41727272727273002</v>
       </c>
-      <c r="Q38" s="41">
+      <c r="Q38" s="39">
         <v>0.49559999999999998</v>
       </c>
-      <c r="R38" s="45">
+      <c r="R38" s="42">
         <v>0.28247031089824998</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="17">
+      <c r="C39" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="16">
         <v>9.4E-2</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="17">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="18">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="16">
         <v>0.111</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39" s="17">
         <v>0.123</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="18">
         <v>0.11</v>
       </c>
-      <c r="N39" s="21">
+      <c r="N39" s="19">
         <v>46136.99</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O39" s="16">
         <v>0.745</v>
       </c>
-      <c r="P39" s="18">
+      <c r="P39" s="17">
         <v>0.59799999999999998</v>
       </c>
-      <c r="Q39" s="18">
+      <c r="Q39" s="17">
         <v>0.68700000000000006</v>
       </c>
-      <c r="R39" s="22">
+      <c r="R39" s="20">
         <v>5.40909312245E-3</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="27">
         <v>1.5</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="28">
         <v>17.600000000000001</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="29">
         <v>68.8</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="28">
         <v>31.9</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="29">
         <v>41.3</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="27">
         <v>0.55500000000000005</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="28">
         <v>0.47499999999999998</v>
       </c>
-      <c r="J40" s="31">
+      <c r="J40" s="29">
         <v>0.57099999999999995</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="27">
         <v>0.84599999999999997</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="28">
         <v>0.59099999999999997</v>
       </c>
-      <c r="M40" s="31">
+      <c r="M40" s="29">
         <v>0.88100000000000001</v>
       </c>
-      <c r="N40" s="32">
+      <c r="N40" s="30">
         <v>46866.54</v>
       </c>
-      <c r="O40" s="29">
+      <c r="O40" s="27">
         <v>0.73099999999999998</v>
       </c>
-      <c r="P40" s="30">
+      <c r="P40" s="28">
         <v>0.51900000000000002</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="28">
         <v>0.69199999999999995</v>
       </c>
-      <c r="R40" s="31">
+      <c r="R40" s="29">
         <v>1.8381961240619998E-2</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="52">
+      <c r="C41" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="49">
         <v>4.4119999999999999</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="50">
         <v>4.4180000000000001</v>
       </c>
-      <c r="J41" s="20">
+      <c r="J41" s="18">
         <v>4.4089999999999998</v>
       </c>
-      <c r="K41" s="52">
+      <c r="K41" s="49">
         <v>4.9960000000000004</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="50">
         <v>5.6740000000000004</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M41" s="18">
         <v>4.8289999999999997</v>
       </c>
-      <c r="N41" s="55">
+      <c r="N41" s="53">
         <v>59904.82</v>
       </c>
-      <c r="O41" s="52">
+      <c r="O41" s="49">
         <v>0.71799999999999997</v>
       </c>
-      <c r="P41" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q41" s="19">
+      <c r="P41" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q41" s="50">
         <v>0.626</v>
       </c>
-      <c r="R41" s="20" t="s">
+      <c r="R41" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C42" s="49">
         <v>5.4</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="50">
         <v>25.8</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="18">
         <v>68</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="50">
         <v>32</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G42" s="18">
         <v>40</v>
       </c>
-      <c r="H42" s="52">
+      <c r="H42" s="49">
         <v>3.9119999999999999</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="50">
         <v>4.5789999999999997</v>
       </c>
-      <c r="J42" s="20">
+      <c r="J42" s="18">
         <v>3.601</v>
       </c>
-      <c r="K42" s="52">
+      <c r="K42" s="49">
         <v>6.1589999999999998</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="50">
         <v>5.085</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="18">
         <v>6.625</v>
       </c>
-      <c r="N42" s="55">
+      <c r="N42" s="53">
         <v>25585.55</v>
       </c>
-      <c r="O42" s="52">
+      <c r="O42" s="49">
         <v>0.55600000000000005</v>
       </c>
-      <c r="P42" s="19">
+      <c r="P42" s="50">
         <v>0.38900000000000001</v>
       </c>
-      <c r="Q42" s="19">
+      <c r="Q42" s="50">
         <v>0.53300000000000003</v>
       </c>
-      <c r="R42" s="20">
+      <c r="R42" s="18">
         <v>0.32092763109901001</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="29">
+      <c r="C43" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="27">
         <v>0.34799999999999998</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="28">
         <v>0.4</v>
       </c>
-      <c r="J43" s="31">
+      <c r="J43" s="29">
         <v>0.33100000000000002</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="27">
         <v>0.44500000000000001</v>
       </c>
-      <c r="L43" s="30">
+      <c r="L43" s="28">
         <v>0.40799999999999997</v>
       </c>
-      <c r="M43" s="31">
+      <c r="M43" s="29">
         <v>0.45700000000000002</v>
       </c>
-      <c r="N43" s="32">
+      <c r="N43" s="30">
         <v>26638.93</v>
       </c>
-      <c r="O43" s="29">
+      <c r="O43" s="27">
         <v>0.68300000000000005</v>
       </c>
-      <c r="P43" s="30">
+      <c r="P43" s="28">
         <v>0.504</v>
       </c>
-      <c r="Q43" s="30">
+      <c r="Q43" s="28">
         <v>0.65200000000000002</v>
       </c>
-      <c r="R43" s="31">
+      <c r="R43" s="29">
         <v>3.3436555326680002E-2</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="32">
         <v>0.3</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="33">
         <v>2</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="34">
         <v>16.2</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="33">
         <v>33.700000000000003</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="34">
         <v>41.6</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="32">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="33">
         <v>2.4E-2</v>
       </c>
-      <c r="J44" s="36">
+      <c r="J44" s="34">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K44" s="34">
+      <c r="K44" s="32">
         <v>3.1E-2</v>
       </c>
-      <c r="L44" s="35">
+      <c r="L44" s="33">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="M44" s="36">
+      <c r="M44" s="34">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="N44" s="37">
+      <c r="N44" s="35">
         <v>36707.85</v>
       </c>
-      <c r="O44" s="34">
+      <c r="O44" s="32">
         <v>0.73099999999999998</v>
       </c>
-      <c r="P44" s="35">
+      <c r="P44" s="33">
         <v>0.58799999999999997</v>
       </c>
-      <c r="Q44" s="35">
+      <c r="Q44" s="33">
         <v>0.68700000000000006</v>
       </c>
-      <c r="R44" s="36">
+      <c r="R44" s="34">
         <v>2.8877310362000002E-3</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="38">
         <v>2.4</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="39">
         <v>15.133333333333301</v>
       </c>
-      <c r="E45" s="56">
+      <c r="E45" s="54">
         <v>51</v>
       </c>
-      <c r="F45" s="41">
+      <c r="F45" s="39">
         <v>32.533333333333303</v>
       </c>
-      <c r="G45" s="57">
+      <c r="G45" s="54">
         <v>40.966666666666697</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="38">
         <v>1.5576666666666701</v>
       </c>
-      <c r="I45" s="41">
+      <c r="I45" s="39">
         <v>1.66366666666667</v>
       </c>
-      <c r="J45" s="57">
+      <c r="J45" s="54">
         <v>1.5055000000000001</v>
       </c>
-      <c r="K45" s="40">
+      <c r="K45" s="38">
         <v>2.0979999999999999</v>
       </c>
-      <c r="L45" s="41">
+      <c r="L45" s="39">
         <v>1.986</v>
       </c>
-      <c r="M45" s="57">
+      <c r="M45" s="54">
         <v>2.1549999999999998</v>
       </c>
-      <c r="N45" s="44">
+      <c r="N45" s="41">
         <v>42569.399002315098</v>
       </c>
-      <c r="O45" s="40">
+      <c r="O45" s="38">
         <v>0.69399999999999995</v>
       </c>
-      <c r="P45" s="41">
+      <c r="P45" s="39">
         <v>0.51959999999999995</v>
       </c>
-      <c r="Q45" s="41">
+      <c r="Q45" s="39">
         <v>0.64616666666667</v>
       </c>
-      <c r="R45" s="45">
+      <c r="R45" s="42">
         <v>7.6208594364990001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="47">
+      <c r="C46" s="44">
         <v>12.7</v>
       </c>
-      <c r="D46" s="48">
+      <c r="D46" s="45">
         <v>43.4</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="29">
         <v>81.400000000000006</v>
       </c>
-      <c r="F46" s="48">
+      <c r="F46" s="45">
         <v>34.4</v>
       </c>
-      <c r="G46" s="31">
+      <c r="G46" s="29">
         <v>42.3</v>
       </c>
-      <c r="H46" s="47">
+      <c r="H46" s="44">
         <v>16.628</v>
       </c>
-      <c r="I46" s="48">
+      <c r="I46" s="45">
         <v>10.717000000000001</v>
       </c>
-      <c r="J46" s="31">
+      <c r="J46" s="29">
         <v>21.501999999999999</v>
       </c>
-      <c r="K46" s="47">
+      <c r="K46" s="44">
         <v>21.4</v>
       </c>
-      <c r="L46" s="48">
+      <c r="L46" s="45">
         <v>15.631</v>
       </c>
-      <c r="M46" s="31">
+      <c r="M46" s="29">
         <v>27.385000000000002</v>
       </c>
-      <c r="N46" s="49">
+      <c r="N46" s="46">
         <v>9107.66</v>
       </c>
-      <c r="O46" s="47">
+      <c r="O46" s="44">
         <v>0.52500000000000002</v>
       </c>
-      <c r="P46" s="48">
+      <c r="P46" s="45">
         <v>0.33400000000000002</v>
       </c>
-      <c r="Q46" s="48">
+      <c r="Q46" s="45">
         <v>0.51500000000000001</v>
       </c>
-      <c r="R46" s="50">
+      <c r="R46" s="47">
         <v>0.36248780767207001</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="27">
         <v>25.3</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="28">
         <v>60.7</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="29">
         <v>88.1</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="28">
         <v>37.4</v>
       </c>
-      <c r="G47" s="31">
+      <c r="G47" s="29">
         <v>45.3</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="27">
         <v>27.928999999999998</v>
       </c>
-      <c r="I47" s="30">
+      <c r="I47" s="28">
         <v>31.654</v>
       </c>
-      <c r="J47" s="31">
+      <c r="J47" s="29">
         <v>24.864999999999998</v>
       </c>
-      <c r="K47" s="29">
+      <c r="K47" s="27">
         <v>32.923999999999999</v>
       </c>
-      <c r="L47" s="30">
+      <c r="L47" s="28">
         <v>29.17</v>
       </c>
-      <c r="M47" s="31">
+      <c r="M47" s="29">
         <v>35.767000000000003</v>
       </c>
-      <c r="N47" s="32">
+      <c r="N47" s="30">
         <v>6137.04</v>
       </c>
-      <c r="O47" s="29">
+      <c r="O47" s="27">
         <v>0.44900000000000001</v>
       </c>
-      <c r="P47" s="30">
+      <c r="P47" s="28">
         <v>0.315</v>
       </c>
-      <c r="Q47" s="30">
+      <c r="Q47" s="28">
         <v>0.442</v>
       </c>
-      <c r="R47" s="31" t="s">
+      <c r="R47" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="52">
+      <c r="C48" s="49">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="50">
         <v>19.3</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="18">
         <v>50.9</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="50">
         <v>42.4</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="18">
         <v>48.7</v>
       </c>
-      <c r="H48" s="52">
+      <c r="H48" s="49">
         <v>0.79500000000000004</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="50">
         <v>0.878</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="18">
         <v>0.72799999999999998</v>
       </c>
-      <c r="K48" s="52">
+      <c r="K48" s="49">
         <v>1.2769999999999999</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="50">
         <v>1.0920000000000001</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="18">
         <v>1.3839999999999999</v>
       </c>
-      <c r="N48" s="55">
+      <c r="N48" s="53">
         <v>18258.66</v>
       </c>
-      <c r="O48" s="52">
+      <c r="O48" s="49">
         <v>0.66200000000000003</v>
       </c>
-      <c r="P48" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q48" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="R48" s="20" t="s">
+      <c r="P48" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="27">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="28">
         <v>38.4</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="29">
         <v>76.400000000000006</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="28">
         <v>35.299999999999997</v>
       </c>
-      <c r="G49" s="31">
+      <c r="G49" s="29">
         <v>43.3</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H49" s="27">
         <v>11.992000000000001</v>
       </c>
-      <c r="I49" s="30">
+      <c r="I49" s="28">
         <v>13.593999999999999</v>
       </c>
-      <c r="J49" s="31">
+      <c r="J49" s="29">
         <v>10.8</v>
       </c>
-      <c r="K49" s="29">
+      <c r="K49" s="27">
         <v>14.346</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="28">
         <v>12.939</v>
       </c>
-      <c r="M49" s="31">
+      <c r="M49" s="29">
         <v>15.458</v>
       </c>
-      <c r="N49" s="32">
+      <c r="N49" s="30">
         <v>14101.97</v>
       </c>
-      <c r="O49" s="29">
+      <c r="O49" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P49" s="30">
+      <c r="P49" s="28">
         <v>0.35799999999999998</v>
       </c>
-      <c r="Q49" s="30">
+      <c r="Q49" s="28">
         <v>0.54</v>
       </c>
-      <c r="R49" s="31">
+      <c r="R49" s="29">
         <v>0.23587099610055001</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="27">
         <v>17.2</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D50" s="28">
         <v>47</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="29">
         <v>80.599999999999994</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="28">
         <v>38.799999999999997</v>
       </c>
-      <c r="G50" s="31">
+      <c r="G50" s="29">
         <v>45.7</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="27">
         <v>13.677</v>
       </c>
-      <c r="I50" s="30">
+      <c r="I50" s="28">
         <v>14.958</v>
       </c>
-      <c r="J50" s="31">
+      <c r="J50" s="29">
         <v>12.523</v>
       </c>
-      <c r="K50" s="29">
+      <c r="K50" s="27">
         <v>18.748999999999999</v>
       </c>
-      <c r="L50" s="30">
+      <c r="L50" s="28">
         <v>18.225000000000001</v>
       </c>
-      <c r="M50" s="31">
+      <c r="M50" s="29">
         <v>19.297999999999998</v>
       </c>
-      <c r="N50" s="32">
+      <c r="N50" s="30">
         <v>6346.44</v>
       </c>
-      <c r="O50" s="29">
+      <c r="O50" s="27">
         <v>0.5</v>
       </c>
-      <c r="P50" s="30">
+      <c r="P50" s="28">
         <v>0.34799999999999998</v>
       </c>
-      <c r="Q50" s="30">
+      <c r="Q50" s="28">
         <v>0.49</v>
       </c>
-      <c r="R50" s="31">
+      <c r="R50" s="29">
         <v>0.24124679983648001</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="22">
         <v>25.2</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="23">
         <v>48.8</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="24">
         <v>78.5</v>
       </c>
-      <c r="F51" s="25">
+      <c r="F51" s="23">
         <v>43.5</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G51" s="24">
         <v>48.6</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="22">
         <v>19.010000000000002</v>
       </c>
-      <c r="I51" s="25">
+      <c r="I51" s="23">
         <v>20.126999999999999</v>
       </c>
-      <c r="J51" s="26">
+      <c r="J51" s="24">
         <v>17.989000000000001</v>
       </c>
-      <c r="K51" s="24">
+      <c r="K51" s="22">
         <v>25.103000000000002</v>
       </c>
-      <c r="L51" s="25">
+      <c r="L51" s="23">
         <v>23.661000000000001</v>
       </c>
-      <c r="M51" s="26">
+      <c r="M51" s="24">
         <v>26.382999999999999</v>
       </c>
-      <c r="N51" s="27">
+      <c r="N51" s="25">
         <v>12772.79</v>
       </c>
-      <c r="O51" s="24">
+      <c r="O51" s="22">
         <v>0.63200000000000001</v>
       </c>
-      <c r="P51" s="25">
+      <c r="P51" s="23">
         <v>0.45800000000000002</v>
       </c>
-      <c r="Q51" s="25">
+      <c r="Q51" s="23">
         <v>0.61799999999999999</v>
       </c>
-      <c r="R51" s="26">
+      <c r="R51" s="24">
         <v>0.11164560022193</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="27">
         <v>13.8</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="28">
         <v>46.6</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="29">
         <v>86.8</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="28">
         <v>29.6</v>
       </c>
-      <c r="G52" s="31">
+      <c r="G52" s="29">
         <v>38.200000000000003</v>
       </c>
-      <c r="H52" s="29">
+      <c r="H52" s="27">
         <v>15.647</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I52" s="28">
         <v>17.12</v>
       </c>
-      <c r="J52" s="31">
+      <c r="J52" s="29">
         <v>14.606999999999999</v>
       </c>
-      <c r="K52" s="29">
+      <c r="K52" s="27">
         <v>21.991</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L52" s="28">
         <v>18.48</v>
       </c>
-      <c r="M52" s="31">
+      <c r="M52" s="29">
         <v>25.358000000000001</v>
       </c>
-      <c r="N52" s="32">
+      <c r="N52" s="30">
         <v>9142.68</v>
       </c>
-      <c r="O52" s="29">
+      <c r="O52" s="27">
         <v>0.46500000000000002</v>
       </c>
-      <c r="P52" s="30">
+      <c r="P52" s="28">
         <v>0.29899999999999999</v>
       </c>
-      <c r="Q52" s="30">
+      <c r="Q52" s="28">
         <v>0.45400000000000001</v>
       </c>
-      <c r="R52" s="31">
+      <c r="R52" s="29">
         <v>0.36359149106242999</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="27">
         <v>26</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="28">
         <v>60.2</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="29">
         <v>89.1</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F53" s="28">
         <v>33.4</v>
       </c>
-      <c r="G53" s="31">
+      <c r="G53" s="29">
         <v>41.6</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H53" s="27">
         <v>18.204000000000001</v>
       </c>
-      <c r="I53" s="30">
+      <c r="I53" s="28">
         <v>19.866</v>
       </c>
-      <c r="J53" s="31">
+      <c r="J53" s="29">
         <v>16.829000000000001</v>
       </c>
-      <c r="K53" s="29">
+      <c r="K53" s="27">
         <v>24.359000000000002</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L53" s="28">
         <v>22.591000000000001</v>
       </c>
-      <c r="M53" s="31">
+      <c r="M53" s="29">
         <v>25.725999999999999</v>
       </c>
-      <c r="N53" s="32">
+      <c r="N53" s="30">
         <v>5727.61</v>
       </c>
-      <c r="O53" s="29">
+      <c r="O53" s="27">
         <v>0.48299999999999998</v>
       </c>
-      <c r="P53" s="30">
+      <c r="P53" s="28">
         <v>0.30599999999999999</v>
       </c>
-      <c r="Q53" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R53" s="31">
+      <c r="Q53" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="29">
         <v>0.34068872344297002</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="27">
         <v>27.6</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="28">
         <v>60.6</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="29">
         <v>88.9</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F54" s="28">
         <v>35.299999999999997</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="29">
         <v>42.8</v>
       </c>
-      <c r="H54" s="29">
+      <c r="H54" s="27">
         <v>32.292999999999999</v>
       </c>
-      <c r="I54" s="30">
+      <c r="I54" s="28">
         <v>33.701000000000001</v>
       </c>
-      <c r="J54" s="31">
+      <c r="J54" s="29">
         <v>30.978999999999999</v>
       </c>
-      <c r="K54" s="29">
+      <c r="K54" s="27">
         <v>39.326000000000001</v>
       </c>
-      <c r="L54" s="30">
+      <c r="L54" s="28">
         <v>38.798999999999999</v>
       </c>
-      <c r="M54" s="31">
+      <c r="M54" s="29">
         <v>39.81</v>
       </c>
-      <c r="N54" s="32">
+      <c r="N54" s="30">
         <v>3247</v>
       </c>
-      <c r="O54" s="29">
+      <c r="O54" s="27">
         <v>0.48099999999999998</v>
       </c>
-      <c r="P54" s="30">
+      <c r="P54" s="28">
         <v>0.33</v>
       </c>
-      <c r="Q54" s="30">
+      <c r="Q54" s="28">
         <v>0.47399999999999998</v>
       </c>
-      <c r="R54" s="31">
+      <c r="R54" s="29">
         <v>0.25929373111005</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="27">
         <v>20.8</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="28">
         <v>56.1</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="29">
         <v>85.9</v>
       </c>
-      <c r="F55" s="30">
+      <c r="F55" s="28">
         <v>35.700000000000003</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="29">
         <v>43.9</v>
       </c>
-      <c r="H55" s="29">
+      <c r="H55" s="27">
         <v>16.158000000000001</v>
       </c>
-      <c r="I55" s="30">
+      <c r="I55" s="28">
         <v>16.838999999999999</v>
       </c>
-      <c r="J55" s="31">
+      <c r="J55" s="29">
         <v>15.717000000000001</v>
       </c>
-      <c r="K55" s="29">
+      <c r="K55" s="27">
         <v>21.120999999999999</v>
       </c>
-      <c r="L55" s="30">
+      <c r="L55" s="28">
         <v>18.864000000000001</v>
       </c>
-      <c r="M55" s="31">
+      <c r="M55" s="29">
         <v>22.747</v>
       </c>
-      <c r="N55" s="32">
+      <c r="N55" s="30">
         <v>6374.48</v>
       </c>
-      <c r="O55" s="29">
+      <c r="O55" s="27">
         <v>0.42799999999999999</v>
       </c>
-      <c r="P55" s="30">
+      <c r="P55" s="28">
         <v>0.29099999999999998</v>
       </c>
-      <c r="Q55" s="30">
+      <c r="Q55" s="28">
         <v>0.41799999999999998</v>
       </c>
-      <c r="R55" s="31">
+      <c r="R55" s="29">
         <v>0.36136458109963998</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="27">
         <v>50.6</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="28">
         <v>83.1</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="29">
         <v>96.3</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="28">
         <v>32.9</v>
       </c>
-      <c r="G56" s="31">
+      <c r="G56" s="29">
         <v>42.2</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="27">
         <v>48.225000000000001</v>
       </c>
-      <c r="I56" s="30">
+      <c r="I56" s="28">
         <v>46.866999999999997</v>
       </c>
-      <c r="J56" s="31">
+      <c r="J56" s="29">
         <v>49.2</v>
       </c>
-      <c r="K56" s="29">
+      <c r="K56" s="27">
         <v>54.329000000000001</v>
       </c>
-      <c r="L56" s="30">
+      <c r="L56" s="28">
         <v>50.749000000000002</v>
       </c>
-      <c r="M56" s="31">
+      <c r="M56" s="29">
         <v>56.831000000000003</v>
       </c>
-      <c r="N56" s="32">
+      <c r="N56" s="30">
         <v>3290.88</v>
       </c>
-      <c r="O56" s="29">
+      <c r="O56" s="27">
         <v>0.4</v>
       </c>
-      <c r="P56" s="30">
+      <c r="P56" s="28">
         <v>0.29199999999999998</v>
       </c>
-      <c r="Q56" s="30">
+      <c r="Q56" s="28">
         <v>0.39200000000000002</v>
       </c>
-      <c r="R56" s="31" t="s">
+      <c r="R56" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="27">
         <v>30.9</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D57" s="28">
         <v>63.5</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="29">
         <v>90.8</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="28">
         <v>35.1</v>
       </c>
-      <c r="G57" s="31">
+      <c r="G57" s="29">
         <v>42.4</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="27">
         <v>26.902999999999999</v>
       </c>
-      <c r="I57" s="30">
+      <c r="I57" s="28">
         <v>25.571999999999999</v>
       </c>
-      <c r="J57" s="31">
+      <c r="J57" s="29">
         <v>27.95</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K57" s="27">
         <v>36.732999999999997</v>
       </c>
-      <c r="L57" s="30">
+      <c r="L57" s="28">
         <v>31.577000000000002</v>
       </c>
-      <c r="M57" s="31">
+      <c r="M57" s="29">
         <v>41.021999999999998</v>
       </c>
-      <c r="N57" s="32">
+      <c r="N57" s="30">
         <v>15649.08</v>
       </c>
-      <c r="O57" s="29">
+      <c r="O57" s="27">
         <v>0.53500000000000003</v>
       </c>
-      <c r="P57" s="30">
+      <c r="P57" s="28">
         <v>0.34100000000000003</v>
       </c>
-      <c r="Q57" s="30">
+      <c r="Q57" s="28">
         <v>0.52400000000000002</v>
       </c>
-      <c r="R57" s="31">
+      <c r="R57" s="29">
         <v>0.17481730183735</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="29">
+      <c r="C58" s="27">
         <v>9.9</v>
       </c>
-      <c r="D58" s="30">
+      <c r="D58" s="28">
         <v>36.299999999999997</v>
       </c>
-      <c r="E58" s="30">
+      <c r="E58" s="29">
         <v>75.599999999999994</v>
       </c>
-      <c r="F58" s="30">
+      <c r="F58" s="28">
         <v>36.200000000000003</v>
       </c>
-      <c r="G58" s="31">
+      <c r="G58" s="29">
         <v>44</v>
       </c>
-      <c r="H58" s="29">
+      <c r="H58" s="27">
         <v>10.385999999999999</v>
       </c>
-      <c r="I58" s="30">
+      <c r="I58" s="28">
         <v>11.138999999999999</v>
       </c>
-      <c r="J58" s="31">
+      <c r="J58" s="29">
         <v>9.9139999999999997</v>
       </c>
-      <c r="K58" s="29">
+      <c r="K58" s="27">
         <v>16.925000000000001</v>
       </c>
-      <c r="L58" s="30">
+      <c r="L58" s="28">
         <v>17.695</v>
       </c>
-      <c r="M58" s="31">
+      <c r="M58" s="29">
         <v>16.582000000000001</v>
       </c>
-      <c r="N58" s="32">
+      <c r="N58" s="30">
         <v>12032.25</v>
       </c>
-      <c r="O58" s="29">
+      <c r="O58" s="27">
         <v>0.51100000000000001</v>
       </c>
-      <c r="P58" s="30">
+      <c r="P58" s="28">
         <v>0.35399999999999998</v>
       </c>
-      <c r="Q58" s="30">
+      <c r="Q58" s="28">
         <v>0.499</v>
       </c>
-      <c r="R58" s="31">
+      <c r="R58" s="29">
         <v>0.25950416517706998</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="27">
         <v>26.1</v>
       </c>
-      <c r="D59" s="30">
+      <c r="D59" s="28">
         <v>64.3</v>
       </c>
-      <c r="E59" s="30">
+      <c r="E59" s="29">
         <v>89.9</v>
       </c>
-      <c r="F59" s="30">
+      <c r="F59" s="28">
         <v>35.700000000000003</v>
       </c>
-      <c r="G59" s="31">
+      <c r="G59" s="29">
         <v>44.2</v>
       </c>
-      <c r="H59" s="29">
+      <c r="H59" s="27">
         <v>27.407</v>
       </c>
-      <c r="I59" s="30">
+      <c r="I59" s="28">
         <v>32.689</v>
       </c>
-      <c r="J59" s="31">
+      <c r="J59" s="29">
         <v>22.411999999999999</v>
       </c>
-      <c r="K59" s="29">
+      <c r="K59" s="27">
         <v>38.972999999999999</v>
       </c>
-      <c r="L59" s="30">
+      <c r="L59" s="28">
         <v>40.859000000000002</v>
       </c>
-      <c r="M59" s="31">
+      <c r="M59" s="29">
         <v>36.872</v>
       </c>
-      <c r="N59" s="32">
+      <c r="N59" s="30">
         <v>5126.59</v>
       </c>
-      <c r="O59" s="29">
+      <c r="O59" s="27">
         <v>0.47699999999999998</v>
       </c>
-      <c r="P59" s="30">
+      <c r="P59" s="28">
         <v>0.309</v>
       </c>
-      <c r="Q59" s="30">
+      <c r="Q59" s="28">
         <v>0.47199999999999998</v>
       </c>
-      <c r="R59" s="31">
+      <c r="R59" s="29">
         <v>0.27240503565405</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="59">
+      <c r="C60" s="56">
         <v>26.6</v>
       </c>
-      <c r="D60" s="60">
+      <c r="D60" s="57">
         <v>58.8</v>
       </c>
-      <c r="E60" s="60">
+      <c r="E60" s="58">
         <v>86.8</v>
       </c>
-      <c r="F60" s="60">
+      <c r="F60" s="57">
         <v>37.9</v>
       </c>
-      <c r="G60" s="61">
+      <c r="G60" s="58">
         <v>45.2</v>
       </c>
-      <c r="H60" s="59">
+      <c r="H60" s="56">
         <v>18.553999999999998</v>
       </c>
-      <c r="I60" s="60">
+      <c r="I60" s="57">
         <v>19.25</v>
       </c>
-      <c r="J60" s="61">
+      <c r="J60" s="58">
         <v>17.893000000000001</v>
       </c>
-      <c r="K60" s="59">
+      <c r="K60" s="56">
         <v>25.521999999999998</v>
       </c>
-      <c r="L60" s="60">
+      <c r="L60" s="57">
         <v>22.465</v>
       </c>
-      <c r="M60" s="61">
+      <c r="M60" s="58">
         <v>29.602</v>
       </c>
-      <c r="N60" s="62">
+      <c r="N60" s="59">
         <v>6319.24</v>
       </c>
-      <c r="O60" s="59">
+      <c r="O60" s="56">
         <v>0.53900000000000003</v>
       </c>
-      <c r="P60" s="60">
+      <c r="P60" s="57">
         <v>0.372</v>
       </c>
-      <c r="Q60" s="60">
+      <c r="Q60" s="57">
         <v>0.52800000000000002</v>
       </c>
-      <c r="R60" s="61">
+      <c r="R60" s="58">
         <v>0.21322051919707999</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="38"/>
-      <c r="B61" s="39" t="s">
+      <c r="A61" s="36"/>
+      <c r="B61" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="40">
+      <c r="C61" s="38">
         <v>21.8</v>
       </c>
-      <c r="D61" s="41">
+      <c r="D61" s="39">
         <v>52.473333333333301</v>
       </c>
-      <c r="E61" s="56">
+      <c r="E61" s="54">
         <v>83.066666666666706</v>
       </c>
-      <c r="F61" s="41">
+      <c r="F61" s="39">
         <v>36.24</v>
       </c>
-      <c r="G61" s="57">
+      <c r="G61" s="54">
         <v>43.893333333333302</v>
       </c>
-      <c r="H61" s="40">
+      <c r="H61" s="38">
         <v>20.253866666666699</v>
       </c>
-      <c r="I61" s="41">
+      <c r="I61" s="39">
         <v>20.998066666666698</v>
       </c>
-      <c r="J61" s="57">
+      <c r="J61" s="54">
         <v>19.593866666666699</v>
       </c>
-      <c r="K61" s="40">
+      <c r="K61" s="38">
         <v>26.205200000000001</v>
       </c>
-      <c r="L61" s="41">
+      <c r="L61" s="39">
         <v>24.1864666666667</v>
       </c>
-      <c r="M61" s="57">
+      <c r="M61" s="54">
         <v>28.015000000000001</v>
       </c>
-      <c r="N61" s="44">
+      <c r="N61" s="41">
         <v>12340.705630877899</v>
       </c>
-      <c r="O61" s="40">
+      <c r="O61" s="38">
         <v>0.50913333333333</v>
       </c>
-      <c r="P61" s="41">
+      <c r="P61" s="39">
         <v>0.33621428571429002</v>
       </c>
-      <c r="Q61" s="41">
+      <c r="Q61" s="39">
         <v>0.48969230769230998</v>
       </c>
-      <c r="R61" s="45">
+      <c r="R61" s="42">
         <v>0.26634472936763998</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="63"/>
-      <c r="B62" s="64" t="s">
+      <c r="A62" s="60"/>
+      <c r="B62" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="65">
+      <c r="C62" s="62">
         <v>29.0369565217391</v>
       </c>
-      <c r="D62" s="66">
+      <c r="D62" s="63">
         <v>53.065217391304401</v>
       </c>
-      <c r="E62" s="66">
+      <c r="E62" s="64">
         <v>77.486956521739202</v>
       </c>
-      <c r="F62" s="66">
+      <c r="F62" s="63">
         <v>40.791304347826099</v>
       </c>
-      <c r="G62" s="67">
+      <c r="G62" s="64">
         <v>47.593478260869603</v>
       </c>
-      <c r="H62" s="65">
+      <c r="H62" s="62">
         <v>26.711259999999999</v>
       </c>
-      <c r="I62" s="66">
+      <c r="I62" s="63">
         <v>28.096039999999999</v>
       </c>
-      <c r="J62" s="67">
+      <c r="J62" s="64">
         <v>25.518979999999999</v>
       </c>
-      <c r="K62" s="65">
+      <c r="K62" s="62">
         <v>30.568359999999998</v>
       </c>
-      <c r="L62" s="66">
+      <c r="L62" s="63">
         <v>29.535119999999999</v>
       </c>
-      <c r="M62" s="67">
+      <c r="M62" s="64">
         <v>31.426259999999999</v>
       </c>
-      <c r="N62" s="68">
+      <c r="N62" s="65">
         <v>15991.688984441</v>
       </c>
-      <c r="O62" s="65">
+      <c r="O62" s="62">
         <v>0.55898113207546996</v>
       </c>
-      <c r="P62" s="66">
+      <c r="P62" s="63">
         <v>0.39387234042552999</v>
       </c>
-      <c r="Q62" s="66">
+      <c r="Q62" s="63">
         <v>0.52706666666667001</v>
       </c>
-      <c r="R62" s="67">
+      <c r="R62" s="64">
         <v>0.23640415085370001</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="63"/>
-      <c r="B63" s="69" t="s">
+      <c r="A63" s="60"/>
+      <c r="B63" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="70">
+      <c r="C63" s="67">
         <v>2.1649484536082499</v>
       </c>
-      <c r="D63" s="71">
+      <c r="D63" s="68">
         <v>7.8154639175257801</v>
       </c>
-      <c r="E63" s="66">
+      <c r="E63" s="64">
         <v>21.2144329896907</v>
       </c>
-      <c r="F63" s="71">
+      <c r="F63" s="68">
         <v>34.550515463917499</v>
       </c>
-      <c r="G63" s="67">
+      <c r="G63" s="64">
         <v>42.231958762886599</v>
       </c>
-      <c r="H63" s="70">
+      <c r="H63" s="67">
         <v>5.5619594594594597</v>
       </c>
-      <c r="I63" s="71">
+      <c r="I63" s="68">
         <v>5.6305270270270302</v>
       </c>
-      <c r="J63" s="67">
+      <c r="J63" s="64">
         <v>5.5797432432432403</v>
       </c>
-      <c r="K63" s="70">
+      <c r="K63" s="67">
         <v>6.4000810810810798</v>
       </c>
-      <c r="L63" s="71">
+      <c r="L63" s="68">
         <v>6.1634459459459503</v>
       </c>
-      <c r="M63" s="67">
+      <c r="M63" s="64">
         <v>6.5332702702702701</v>
       </c>
-      <c r="N63" s="72">
+      <c r="N63" s="69">
         <v>41240.633510321502</v>
       </c>
-      <c r="O63" s="70">
+      <c r="O63" s="67">
         <v>0.78188970588234996</v>
       </c>
-      <c r="P63" s="71">
+      <c r="P63" s="68">
         <v>0.68614018691588996</v>
       </c>
-      <c r="Q63" s="71">
+      <c r="Q63" s="68">
         <v>0.68125454545455</v>
       </c>
-      <c r="R63" s="73">
+      <c r="R63" s="70">
         <v>4.1319552257219998E-2</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="74"/>
-      <c r="B64" s="75" t="s">
+      <c r="A64" s="71"/>
+      <c r="B64" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="76">
+      <c r="C64" s="73">
         <v>2.6380952380952398</v>
       </c>
-      <c r="D64" s="77">
+      <c r="D64" s="74">
         <v>7.4666666666666703</v>
       </c>
-      <c r="E64" s="71">
+      <c r="E64" s="70">
         <v>22.6619047619048</v>
       </c>
-      <c r="F64" s="77">
+      <c r="F64" s="74">
         <v>44.185714285714297</v>
       </c>
-      <c r="G64" s="73">
+      <c r="G64" s="70">
         <v>49.985714285714302</v>
       </c>
-      <c r="H64" s="76">
+      <c r="H64" s="73">
         <v>4.6348399999999996</v>
       </c>
-      <c r="I64" s="77">
+      <c r="I64" s="74">
         <v>4.3983600000000003</v>
       </c>
-      <c r="J64" s="73">
+      <c r="J64" s="70">
         <v>4.7705599999999997</v>
       </c>
-      <c r="K64" s="76">
+      <c r="K64" s="73">
         <v>5.6265999999999998</v>
       </c>
-      <c r="L64" s="77">
+      <c r="L64" s="74">
         <v>4.6337999999999999</v>
       </c>
-      <c r="M64" s="73">
+      <c r="M64" s="70">
         <v>6.0801600000000002</v>
       </c>
-      <c r="N64" s="78">
+      <c r="N64" s="75">
         <v>35716.891516510899</v>
       </c>
-      <c r="O64" s="76">
+      <c r="O64" s="73">
         <v>0.74048484848484997</v>
       </c>
-      <c r="P64" s="77">
+      <c r="P64" s="74">
         <v>0.58467999999999998</v>
       </c>
-      <c r="Q64" s="77">
+      <c r="Q64" s="74">
         <v>0.67869565217391004</v>
       </c>
-      <c r="R64" s="79">
+      <c r="R64" s="76">
         <v>3.7759744758000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="74"/>
-      <c r="B65" s="69" t="s">
+      <c r="A65" s="71"/>
+      <c r="B65" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="80">
+      <c r="C65" s="77">
         <v>5.35</v>
       </c>
-      <c r="D65" s="81">
+      <c r="D65" s="78">
         <v>20.936363636363598</v>
       </c>
-      <c r="E65" s="81">
+      <c r="E65" s="79">
         <v>49.072727272727299</v>
       </c>
-      <c r="F65" s="81">
+      <c r="F65" s="78">
         <v>33.6727272727273</v>
       </c>
-      <c r="G65" s="82">
+      <c r="G65" s="79">
         <v>41.909090909090899</v>
       </c>
-      <c r="H65" s="80">
+      <c r="H65" s="77">
         <v>8.0873448275862092</v>
       </c>
-      <c r="I65" s="81">
+      <c r="I65" s="78">
         <v>8.4829310344827604</v>
       </c>
-      <c r="J65" s="82">
+      <c r="J65" s="79">
         <v>8.0622068965517304</v>
       </c>
-      <c r="K65" s="80">
+      <c r="K65" s="77">
         <v>8.8030689655172392</v>
       </c>
-      <c r="L65" s="81">
+      <c r="L65" s="78">
         <v>9.0554482758620694</v>
       </c>
-      <c r="M65" s="82">
+      <c r="M65" s="79">
         <v>8.7338620689655198</v>
       </c>
-      <c r="N65" s="72">
+      <c r="N65" s="69">
         <v>24044.485727140302</v>
       </c>
-      <c r="O65" s="80">
+      <c r="O65" s="77">
         <v>0.67203448275861999</v>
       </c>
-      <c r="P65" s="81">
+      <c r="P65" s="78">
         <v>0.55117391304347996</v>
       </c>
-      <c r="Q65" s="81">
+      <c r="Q65" s="78">
         <v>0.62111111111110995</v>
       </c>
-      <c r="R65" s="82">
+      <c r="R65" s="79">
         <v>5.640807974743E-2</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="74"/>
-      <c r="B66" s="83" t="s">
+      <c r="A66" s="71"/>
+      <c r="B66" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="84">
+      <c r="C66" s="81">
         <v>10.8090909090909</v>
       </c>
-      <c r="D66" s="85">
+      <c r="D66" s="82">
         <v>22.371328671328701</v>
       </c>
-      <c r="E66" s="85">
+      <c r="E66" s="83">
         <v>39.316083916083898</v>
       </c>
-      <c r="F66" s="85">
+      <c r="F66" s="82">
         <v>36.558041958041997</v>
       </c>
-      <c r="G66" s="86">
+      <c r="G66" s="83">
         <v>43.956643356643397</v>
       </c>
-      <c r="H66" s="84">
+      <c r="H66" s="81">
         <v>14.089903225806401</v>
       </c>
-      <c r="I66" s="85">
+      <c r="I66" s="82">
         <v>14.689201612903201</v>
       </c>
-      <c r="J66" s="86">
+      <c r="J66" s="83">
         <v>13.6197580645161</v>
       </c>
-      <c r="K66" s="84">
+      <c r="K66" s="81">
         <v>16.1453548387097</v>
       </c>
-      <c r="L66" s="85">
+      <c r="L66" s="82">
         <v>15.587508064516101</v>
       </c>
-      <c r="M66" s="86">
+      <c r="M66" s="83">
         <v>16.5707661290323</v>
       </c>
-      <c r="N66" s="87">
+      <c r="N66" s="84">
         <v>36838.432824617703</v>
       </c>
-      <c r="O66" s="84">
+      <c r="O66" s="81">
         <v>0.71938095238095001</v>
       </c>
-      <c r="P66" s="85">
+      <c r="P66" s="82">
         <v>0.59694155844156005</v>
       </c>
-      <c r="Q66" s="85">
+      <c r="Q66" s="82">
         <v>0.63649032258064997</v>
       </c>
-      <c r="R66" s="86">
+      <c r="R66" s="83">
         <v>0.14023568675685</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="74"/>
-      <c r="B67" s="69" t="s">
+      <c r="A67" s="71"/>
+      <c r="B67" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="80">
+      <c r="C67" s="77">
         <v>33.170588235294098</v>
       </c>
-      <c r="D67" s="81">
+      <c r="D67" s="78">
         <v>53.611764705882401</v>
       </c>
-      <c r="E67" s="81">
+      <c r="E67" s="79">
         <v>73.652941176470605</v>
       </c>
-      <c r="F67" s="81">
+      <c r="F67" s="78">
         <v>40.7529411764706</v>
       </c>
-      <c r="G67" s="82">
+      <c r="G67" s="79">
         <v>47.470588235294102</v>
       </c>
-      <c r="H67" s="80">
+      <c r="H67" s="77">
         <v>33.565526315789498</v>
       </c>
-      <c r="I67" s="81">
+      <c r="I67" s="78">
         <v>35.2322631578947</v>
       </c>
-      <c r="J67" s="82">
+      <c r="J67" s="79">
         <v>32.164999999999999</v>
       </c>
-      <c r="K67" s="80">
+      <c r="K67" s="77">
         <v>36.3312105263158</v>
       </c>
-      <c r="L67" s="81">
+      <c r="L67" s="78">
         <v>35.656631578947398</v>
       </c>
-      <c r="M67" s="82">
+      <c r="M67" s="79">
         <v>36.948210526315798</v>
       </c>
-      <c r="N67" s="72">
+      <c r="N67" s="69">
         <v>15043.4781187628</v>
       </c>
-      <c r="O67" s="80">
+      <c r="O67" s="77">
         <v>0.58194999999999997</v>
       </c>
-      <c r="P67" s="81">
+      <c r="P67" s="78">
         <v>0.43094117647058999</v>
       </c>
-      <c r="Q67" s="81">
+      <c r="Q67" s="78">
         <v>0.53674999999999995</v>
       </c>
-      <c r="R67" s="82">
+      <c r="R67" s="79">
         <v>0.22245479675915</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="74"/>
-      <c r="B68" s="69" t="s">
+      <c r="A68" s="71"/>
+      <c r="B68" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="80">
+      <c r="C68" s="77">
         <v>21.5</v>
       </c>
-      <c r="D68" s="81">
+      <c r="D68" s="78">
         <v>49.247619047619096</v>
       </c>
-      <c r="E68" s="81">
+      <c r="E68" s="79">
         <v>79.880952380952394</v>
       </c>
-      <c r="F68" s="81">
+      <c r="F68" s="78">
         <v>36.428571428571402</v>
       </c>
-      <c r="G68" s="82">
+      <c r="G68" s="79">
         <v>44.014285714285698</v>
       </c>
-      <c r="H68" s="80">
+      <c r="H68" s="77">
         <v>20.8385416666667</v>
       </c>
-      <c r="I68" s="81">
+      <c r="I68" s="78">
         <v>21.593458333333299</v>
       </c>
-      <c r="J68" s="82">
+      <c r="J68" s="79">
         <v>20.286999999999999</v>
       </c>
-      <c r="K68" s="80">
+      <c r="K68" s="77">
         <v>25.247875000000001</v>
       </c>
-      <c r="L68" s="81">
+      <c r="L68" s="78">
         <v>23.706208333333301</v>
       </c>
-      <c r="M68" s="82">
+      <c r="M68" s="79">
         <v>26.5878333333333</v>
       </c>
-      <c r="N68" s="72">
+      <c r="N68" s="69">
         <v>19828.662748457598</v>
       </c>
-      <c r="O68" s="80">
+      <c r="O68" s="77">
         <v>0.53241666666666998</v>
       </c>
-      <c r="P68" s="81">
+      <c r="P68" s="78">
         <v>0.35780952380952002</v>
       </c>
-      <c r="Q68" s="81">
+      <c r="Q68" s="78">
         <v>0.51340909090909004</v>
       </c>
-      <c r="R68" s="82">
+      <c r="R68" s="79">
         <v>0.25947730721329998</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="74"/>
-      <c r="B69" s="69" t="s">
+      <c r="A69" s="71"/>
+      <c r="B69" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="80">
+      <c r="C69" s="77">
         <v>54.771428571428601</v>
       </c>
-      <c r="D69" s="81">
+      <c r="D69" s="78">
         <v>79.857142857142904</v>
       </c>
-      <c r="E69" s="81">
+      <c r="E69" s="79">
         <v>94</v>
       </c>
-      <c r="F69" s="81">
+      <c r="F69" s="78">
         <v>41.7</v>
       </c>
-      <c r="G69" s="82">
+      <c r="G69" s="79">
         <v>48.685714285714297</v>
       </c>
-      <c r="H69" s="80">
+      <c r="H69" s="77">
         <v>45.435333333333297</v>
       </c>
-      <c r="I69" s="81">
+      <c r="I69" s="78">
         <v>47.340666666666699</v>
       </c>
-      <c r="J69" s="82">
+      <c r="J69" s="79">
         <v>43.619833333333297</v>
       </c>
-      <c r="K69" s="80">
+      <c r="K69" s="77">
         <v>47.790666666666702</v>
       </c>
-      <c r="L69" s="81">
+      <c r="L69" s="78">
         <v>47.205500000000001</v>
       </c>
-      <c r="M69" s="82">
+      <c r="M69" s="79">
         <v>48.438666666666698</v>
       </c>
-      <c r="N69" s="72">
+      <c r="N69" s="69">
         <v>5737.1379383828998</v>
       </c>
-      <c r="O69" s="80">
+      <c r="O69" s="77">
         <v>0.49614285714285999</v>
       </c>
-      <c r="P69" s="81">
+      <c r="P69" s="78">
         <v>0.36142857142856999</v>
       </c>
-      <c r="Q69" s="81">
+      <c r="Q69" s="78">
         <v>0.48928571428570999</v>
       </c>
-      <c r="R69" s="82">
+      <c r="R69" s="79">
         <v>0.28561428661781002</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="74"/>
-      <c r="B70" s="69" t="s">
+      <c r="A70" s="71"/>
+      <c r="B70" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="80">
+      <c r="C70" s="77">
         <v>40.200000000000003</v>
       </c>
-      <c r="D70" s="81">
+      <c r="D70" s="78">
         <v>61.955555555555598</v>
       </c>
-      <c r="E70" s="81">
+      <c r="E70" s="79">
         <v>81.844444444444505</v>
       </c>
-      <c r="F70" s="81">
+      <c r="F70" s="78">
         <v>42.0555555555556</v>
       </c>
-      <c r="G70" s="82">
+      <c r="G70" s="79">
         <v>48.533333333333303</v>
       </c>
-      <c r="H70" s="80">
+      <c r="H70" s="77">
         <v>39.040599999999998</v>
       </c>
-      <c r="I70" s="81">
+      <c r="I70" s="78">
         <v>41.1068</v>
       </c>
-      <c r="J70" s="82">
+      <c r="J70" s="79">
         <v>37.277799999999999</v>
       </c>
-      <c r="K70" s="80">
+      <c r="K70" s="77">
         <v>42.2483</v>
       </c>
-      <c r="L70" s="81">
+      <c r="L70" s="78">
         <v>41.393900000000002</v>
       </c>
-      <c r="M70" s="82">
+      <c r="M70" s="79">
         <v>43.098500000000001</v>
       </c>
-      <c r="N70" s="72">
+      <c r="N70" s="69">
         <v>7699.2261833625698</v>
       </c>
-      <c r="O70" s="80">
+      <c r="O70" s="77">
         <v>0.53545454545454996</v>
       </c>
-      <c r="P70" s="81">
+      <c r="P70" s="78">
         <v>0.38250000000000001</v>
       </c>
-      <c r="Q70" s="81">
+      <c r="Q70" s="78">
         <v>0.51</v>
       </c>
-      <c r="R70" s="82">
+      <c r="R70" s="79">
         <v>0.30608950100068999</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="74"/>
-      <c r="B71" s="69" t="s">
+      <c r="A71" s="71"/>
+      <c r="B71" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="80">
+      <c r="C71" s="77">
         <v>21.8</v>
       </c>
-      <c r="D71" s="81">
+      <c r="D71" s="78">
         <v>52.4733333333334</v>
       </c>
-      <c r="E71" s="81">
+      <c r="E71" s="79">
         <v>83.066666666666706</v>
       </c>
-      <c r="F71" s="81">
+      <c r="F71" s="78">
         <v>36.24</v>
       </c>
-      <c r="G71" s="82">
+      <c r="G71" s="79">
         <v>43.893333333333302</v>
       </c>
-      <c r="H71" s="80">
+      <c r="H71" s="77">
         <v>20.253866666666699</v>
       </c>
-      <c r="I71" s="81">
+      <c r="I71" s="78">
         <v>20.998066666666698</v>
       </c>
-      <c r="J71" s="82">
+      <c r="J71" s="79">
         <v>19.593866666666699</v>
       </c>
-      <c r="K71" s="80">
+      <c r="K71" s="77">
         <v>26.205200000000001</v>
       </c>
-      <c r="L71" s="81">
+      <c r="L71" s="78">
         <v>24.1864666666667</v>
       </c>
-      <c r="M71" s="82">
+      <c r="M71" s="79">
         <v>28.015000000000001</v>
       </c>
-      <c r="N71" s="72">
+      <c r="N71" s="69">
         <v>12340.705630877899</v>
       </c>
-      <c r="O71" s="80">
+      <c r="O71" s="77">
         <v>0.50913333333333</v>
       </c>
-      <c r="P71" s="81">
+      <c r="P71" s="78">
         <v>0.33621428571429002</v>
       </c>
-      <c r="Q71" s="81">
+      <c r="Q71" s="78">
         <v>0.48969230769230998</v>
       </c>
-      <c r="R71" s="82">
+      <c r="R71" s="79">
         <v>0.26634472936763998</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="74"/>
-      <c r="B72" s="69" t="s">
+      <c r="A72" s="71"/>
+      <c r="B72" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="80">
+      <c r="C72" s="77">
         <v>34.483333333333299</v>
       </c>
-      <c r="D72" s="81">
+      <c r="D72" s="78">
         <v>64.483333333333405</v>
       </c>
-      <c r="E72" s="81">
+      <c r="E72" s="79">
         <v>89.1</v>
       </c>
-      <c r="F72" s="81">
+      <c r="F72" s="78">
         <v>39.383333333333297</v>
       </c>
-      <c r="G72" s="82">
+      <c r="G72" s="79">
         <v>46.466666666666697</v>
       </c>
-      <c r="H72" s="80">
+      <c r="H72" s="77">
         <v>32.291200000000003</v>
       </c>
-      <c r="I72" s="81">
+      <c r="I72" s="78">
         <v>34.017800000000001</v>
       </c>
-      <c r="J72" s="82">
+      <c r="J72" s="79">
         <v>30.988600000000002</v>
       </c>
-      <c r="K72" s="80">
+      <c r="K72" s="77">
         <v>34.976999999999997</v>
       </c>
-      <c r="L72" s="81">
+      <c r="L72" s="78">
         <v>35.033799999999999</v>
       </c>
-      <c r="M72" s="82">
+      <c r="M72" s="79">
         <v>34.853200000000001</v>
       </c>
-      <c r="N72" s="72">
+      <c r="N72" s="69">
         <v>8374.6532509499993</v>
       </c>
-      <c r="O72" s="80">
+      <c r="O72" s="77">
         <v>0.5</v>
       </c>
-      <c r="P72" s="81">
+      <c r="P72" s="78">
         <v>0.35320000000000001</v>
       </c>
-      <c r="Q72" s="81">
+      <c r="Q72" s="78">
         <v>0.48383333333333001</v>
       </c>
-      <c r="R72" s="82">
+      <c r="R72" s="79">
         <v>0.27450110471312</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="74"/>
-      <c r="B73" s="69" t="s">
+      <c r="A73" s="71"/>
+      <c r="B73" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="80">
+      <c r="C73" s="77">
         <v>36.186666666666703</v>
       </c>
-      <c r="D73" s="81">
+      <c r="D73" s="78">
         <v>53.933333333333302</v>
       </c>
-      <c r="E73" s="81">
+      <c r="E73" s="79">
         <v>71.326666666666696</v>
       </c>
-      <c r="F73" s="81">
+      <c r="F73" s="78">
         <v>47.76</v>
       </c>
-      <c r="G73" s="82">
+      <c r="G73" s="79">
         <v>53.273333333333397</v>
       </c>
-      <c r="H73" s="80">
+      <c r="H73" s="77">
         <v>35.049999999999997</v>
       </c>
-      <c r="I73" s="81">
+      <c r="I73" s="78">
         <v>37.093800000000002</v>
       </c>
-      <c r="J73" s="82">
+      <c r="J73" s="79">
         <v>33.197466666666699</v>
       </c>
-      <c r="K73" s="80">
+      <c r="K73" s="77">
         <v>38.808999999999997</v>
       </c>
-      <c r="L73" s="81">
+      <c r="L73" s="78">
         <v>37.915199999999999</v>
       </c>
-      <c r="M73" s="82">
+      <c r="M73" s="79">
         <v>39.403266666666703</v>
       </c>
-      <c r="N73" s="72">
+      <c r="N73" s="69">
         <v>12471.987020233</v>
       </c>
-      <c r="O73" s="80">
+      <c r="O73" s="77">
         <v>0.59424999999999994</v>
       </c>
-      <c r="P73" s="81">
+      <c r="P73" s="78">
         <v>0.42426666666667001</v>
       </c>
-      <c r="Q73" s="81">
+      <c r="Q73" s="78">
         <v>0.54900000000000004</v>
       </c>
-      <c r="R73" s="82">
+      <c r="R73" s="79">
         <v>0.21551391995222999</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="74"/>
-      <c r="B74" s="69" t="s">
+      <c r="A74" s="71"/>
+      <c r="B74" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="80">
+      <c r="C74" s="77">
         <v>2.85</v>
       </c>
-      <c r="D74" s="81">
+      <c r="D74" s="78">
         <v>13.9</v>
       </c>
-      <c r="E74" s="81">
+      <c r="E74" s="79">
         <v>42.1</v>
       </c>
-      <c r="F74" s="81">
+      <c r="F74" s="78">
         <v>32.85</v>
       </c>
-      <c r="G74" s="82">
+      <c r="G74" s="79">
         <v>40.799999999999997</v>
       </c>
-      <c r="H74" s="80">
+      <c r="H74" s="77">
         <v>1.7582</v>
       </c>
-      <c r="I74" s="81">
+      <c r="I74" s="78">
         <v>1.9014</v>
       </c>
-      <c r="J74" s="82">
+      <c r="J74" s="79">
         <v>1.6923999999999999</v>
       </c>
-      <c r="K74" s="80">
+      <c r="K74" s="77">
         <v>2.3483999999999998</v>
       </c>
-      <c r="L74" s="81">
+      <c r="L74" s="78">
         <v>2.2650000000000001</v>
       </c>
-      <c r="M74" s="82">
+      <c r="M74" s="79">
         <v>2.4098000000000002</v>
       </c>
-      <c r="N74" s="72">
+      <c r="N74" s="69">
         <v>38105.679114411803</v>
       </c>
-      <c r="O74" s="80">
+      <c r="O74" s="77">
         <v>0.68659999999999999</v>
       </c>
-      <c r="P74" s="81">
+      <c r="P74" s="78">
         <v>0.51975000000000005</v>
       </c>
-      <c r="Q74" s="81">
+      <c r="Q74" s="78">
         <v>0.63700000000000001</v>
       </c>
-      <c r="R74" s="82">
+      <c r="R74" s="79">
         <v>9.0665252646090003E-2</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="74"/>
-      <c r="B75" s="69" t="s">
+      <c r="A75" s="71"/>
+      <c r="B75" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="C75" s="70">
+      <c r="C75" s="67">
         <v>30.38</v>
       </c>
-      <c r="D75" s="71">
+      <c r="D75" s="68">
         <v>53.2</v>
       </c>
-      <c r="E75" s="85">
+      <c r="E75" s="83">
         <v>78.760000000000005</v>
       </c>
-      <c r="F75" s="71">
+      <c r="F75" s="68">
         <v>43.66</v>
       </c>
-      <c r="G75" s="86">
+      <c r="G75" s="83">
         <v>49.98</v>
       </c>
-      <c r="H75" s="70">
+      <c r="H75" s="67">
         <v>28.854500000000002</v>
       </c>
-      <c r="I75" s="71">
+      <c r="I75" s="68">
         <v>30.74775</v>
       </c>
-      <c r="J75" s="86">
+      <c r="J75" s="83">
         <v>26.989000000000001</v>
       </c>
-      <c r="K75" s="70">
+      <c r="K75" s="67">
         <v>31.965</v>
       </c>
-      <c r="L75" s="71">
+      <c r="L75" s="68">
         <v>32.367249999999999</v>
       </c>
-      <c r="M75" s="86">
+      <c r="M75" s="83">
         <v>31.401499999999999</v>
       </c>
-      <c r="N75" s="72">
+      <c r="N75" s="69">
         <v>10473.323231492999</v>
       </c>
-      <c r="O75" s="70">
+      <c r="O75" s="67">
         <v>0.55900000000000005</v>
       </c>
-      <c r="P75" s="71">
+      <c r="P75" s="68">
         <v>0.379</v>
       </c>
-      <c r="Q75" s="71">
+      <c r="Q75" s="68">
         <v>0.50900000000000001</v>
       </c>
-      <c r="R75" s="73">
+      <c r="R75" s="70">
         <v>0.19498671269921999</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="74"/>
-      <c r="B76" s="88" t="s">
+      <c r="A76" s="71"/>
+      <c r="B76" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="89">
+      <c r="C76" s="86">
         <v>2.1428571428571401</v>
       </c>
-      <c r="D76" s="90">
+      <c r="D76" s="87">
         <v>13.271428571428601</v>
       </c>
-      <c r="E76" s="81">
+      <c r="E76" s="79">
         <v>41</v>
       </c>
-      <c r="F76" s="90">
+      <c r="F76" s="87">
         <v>37.171428571428599</v>
       </c>
-      <c r="G76" s="82">
+      <c r="G76" s="79">
         <v>44.771428571428601</v>
       </c>
-      <c r="H76" s="89">
+      <c r="H76" s="86">
         <v>4.7977499999999997</v>
       </c>
-      <c r="I76" s="90">
+      <c r="I76" s="87">
         <v>4.6138750000000002</v>
       </c>
-      <c r="J76" s="82">
+      <c r="J76" s="79">
         <v>4.9517499999999997</v>
       </c>
-      <c r="K76" s="89">
+      <c r="K76" s="86">
         <v>6.1837499999999999</v>
       </c>
-      <c r="L76" s="90">
+      <c r="L76" s="87">
         <v>5.7312500000000002</v>
       </c>
-      <c r="M76" s="82">
+      <c r="M76" s="79">
         <v>6.5787500000000003</v>
       </c>
-      <c r="N76" s="91">
+      <c r="N76" s="88">
         <v>24703.950848324101</v>
       </c>
-      <c r="O76" s="89">
+      <c r="O76" s="86">
         <v>0.72629999999999995</v>
       </c>
-      <c r="P76" s="90">
+      <c r="P76" s="87">
         <v>0.60028571428570998</v>
       </c>
-      <c r="Q76" s="90">
+      <c r="Q76" s="87">
         <v>0.61460000000000004</v>
       </c>
-      <c r="R76" s="92">
+      <c r="R76" s="89">
         <v>3.8364099472040003E-2</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="74"/>
-      <c r="B77" s="69" t="s">
+      <c r="A77" s="71"/>
+      <c r="B77" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="80">
+      <c r="C77" s="77">
         <v>2.1</v>
       </c>
-      <c r="D77" s="81">
+      <c r="D77" s="78">
         <v>6.08</v>
       </c>
-      <c r="E77" s="81">
+      <c r="E77" s="79">
         <v>19.5</v>
       </c>
-      <c r="F77" s="81">
+      <c r="F77" s="78">
         <v>44.21</v>
       </c>
-      <c r="G77" s="82">
+      <c r="G77" s="79">
         <v>50.02</v>
       </c>
-      <c r="H77" s="80">
+      <c r="H77" s="77">
         <v>4.7350833333333302</v>
       </c>
-      <c r="I77" s="81">
+      <c r="I77" s="78">
         <v>4.73166666666667</v>
       </c>
-      <c r="J77" s="82">
+      <c r="J77" s="79">
         <v>4.73325</v>
       </c>
-      <c r="K77" s="80">
+      <c r="K77" s="77">
         <v>5.8171666666666697</v>
       </c>
-      <c r="L77" s="81">
+      <c r="L77" s="78">
         <v>5.1075833333333298</v>
       </c>
-      <c r="M77" s="82">
+      <c r="M77" s="79">
         <v>6.1106666666666696</v>
       </c>
-      <c r="N77" s="72">
+      <c r="N77" s="69">
         <v>34617.389016608497</v>
       </c>
-      <c r="O77" s="80">
+      <c r="O77" s="77">
         <v>0.75483333333333003</v>
       </c>
-      <c r="P77" s="81">
+      <c r="P77" s="78">
         <v>0.61683333333333001</v>
       </c>
-      <c r="Q77" s="81">
+      <c r="Q77" s="78">
         <v>0.70189999999999997</v>
       </c>
-      <c r="R77" s="82">
+      <c r="R77" s="79">
         <v>2.122828135668E-2</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="74"/>
-      <c r="B78" s="69" t="s">
+      <c r="A78" s="71"/>
+      <c r="B78" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="80">
+      <c r="C78" s="77">
         <v>0.32222222222222002</v>
       </c>
-      <c r="D78" s="81">
+      <c r="D78" s="78">
         <v>0.56296296296296</v>
       </c>
-      <c r="E78" s="81">
+      <c r="E78" s="79">
         <v>1.4222222222222201</v>
       </c>
-      <c r="F78" s="81">
+      <c r="F78" s="78">
         <v>30.762962962963002</v>
       </c>
-      <c r="G78" s="82">
+      <c r="G78" s="79">
         <v>39</v>
       </c>
-      <c r="H78" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J78" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="K78" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L78" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="M78" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="N78" s="72">
+      <c r="H78" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="L78" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="69">
         <v>93556.584853512293</v>
       </c>
-      <c r="O78" s="80">
+      <c r="O78" s="77">
         <v>0.89611111111110997</v>
       </c>
-      <c r="P78" s="81">
+      <c r="P78" s="78">
         <v>0.82674074074074</v>
       </c>
-      <c r="Q78" s="81">
+      <c r="Q78" s="78">
         <v>0.74888888888889005</v>
       </c>
-      <c r="R78" s="82" t="s">
+      <c r="R78" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="74"/>
-      <c r="B79" s="83" t="s">
+      <c r="A79" s="71"/>
+      <c r="B79" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="84">
+      <c r="C79" s="81">
         <v>0.45</v>
       </c>
-      <c r="D79" s="85">
+      <c r="D79" s="82">
         <v>1.0388888888888901</v>
       </c>
-      <c r="E79" s="85">
+      <c r="E79" s="83">
         <v>3.1805555555555598</v>
       </c>
-      <c r="F79" s="85">
+      <c r="F79" s="82">
         <v>33.1666666666667</v>
       </c>
-      <c r="G79" s="86">
+      <c r="G79" s="83">
         <v>41.0138888888889</v>
       </c>
-      <c r="H79" s="84">
+      <c r="H79" s="81">
         <v>1.0456000000000001</v>
       </c>
-      <c r="I79" s="85">
+      <c r="I79" s="82">
         <v>1.0258</v>
       </c>
-      <c r="J79" s="86">
+      <c r="J79" s="83">
         <v>1.0611999999999999</v>
       </c>
-      <c r="K79" s="84">
+      <c r="K79" s="81">
         <v>0.84619999999999995</v>
       </c>
-      <c r="L79" s="85">
+      <c r="L79" s="82">
         <v>0.93620000000000003</v>
       </c>
-      <c r="M79" s="86">
+      <c r="M79" s="83">
         <v>0.79720000000000002</v>
       </c>
-      <c r="N79" s="87">
+      <c r="N79" s="84">
         <v>93108.020066660203</v>
       </c>
-      <c r="O79" s="84">
+      <c r="O79" s="81">
         <v>0.90115789473684005</v>
       </c>
-      <c r="P79" s="85">
+      <c r="P79" s="82">
         <v>0.82173684210525999</v>
       </c>
-      <c r="Q79" s="85">
+      <c r="Q79" s="82">
         <v>0.74492105263158004</v>
       </c>
-      <c r="R79" s="86">
+      <c r="R79" s="83">
         <v>1.8075824470749999E-2</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="74"/>
-      <c r="B80" s="69" t="s">
+      <c r="A80" s="71"/>
+      <c r="B80" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C80" s="80">
+      <c r="C80" s="77">
         <v>23.616666666666699</v>
       </c>
-      <c r="D80" s="81">
+      <c r="D80" s="78">
         <v>42.566666666666698</v>
       </c>
-      <c r="E80" s="81">
+      <c r="E80" s="79">
         <v>68.9166666666667</v>
       </c>
-      <c r="F80" s="81">
+      <c r="F80" s="78">
         <v>40.866666666666703</v>
       </c>
-      <c r="G80" s="82">
+      <c r="G80" s="79">
         <v>47.2</v>
       </c>
-      <c r="H80" s="80">
+      <c r="H80" s="77">
         <v>16.680888888888902</v>
       </c>
-      <c r="I80" s="81">
+      <c r="I80" s="78">
         <v>18.229111111111099</v>
       </c>
-      <c r="J80" s="82">
+      <c r="J80" s="79">
         <v>15.437888888888899</v>
       </c>
-      <c r="K80" s="80">
+      <c r="K80" s="77">
         <v>19.890555555555601</v>
       </c>
-      <c r="L80" s="81">
+      <c r="L80" s="78">
         <v>19.361444444444398</v>
       </c>
-      <c r="M80" s="82">
+      <c r="M80" s="79">
         <v>20.345666666666698</v>
       </c>
-      <c r="N80" s="72">
+      <c r="N80" s="69">
         <v>28363.364136002801</v>
       </c>
-      <c r="O80" s="80">
+      <c r="O80" s="77">
         <v>0.59189999999999998</v>
       </c>
-      <c r="P80" s="81">
+      <c r="P80" s="78">
         <v>0.41085714285713998</v>
       </c>
-      <c r="Q80" s="81">
+      <c r="Q80" s="78">
         <v>0.54755555555556001</v>
       </c>
-      <c r="R80" s="82">
+      <c r="R80" s="79">
         <v>0.25064923388214</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="74"/>
-      <c r="B81" s="69" t="s">
+      <c r="A81" s="71"/>
+      <c r="B81" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="C81" s="80">
+      <c r="C81" s="77">
         <v>5.15</v>
       </c>
-      <c r="D81" s="81">
+      <c r="D81" s="78">
         <v>14.91</v>
       </c>
-      <c r="E81" s="81">
+      <c r="E81" s="79">
         <v>30.38</v>
       </c>
-      <c r="F81" s="81">
+      <c r="F81" s="78">
         <v>33.869999999999997</v>
       </c>
-      <c r="G81" s="82">
+      <c r="G81" s="79">
         <v>41.83</v>
       </c>
-      <c r="H81" s="80">
+      <c r="H81" s="77">
         <v>9.3543888888888898</v>
       </c>
-      <c r="I81" s="81">
+      <c r="I81" s="78">
         <v>9.4064999999999994</v>
       </c>
-      <c r="J81" s="82">
+      <c r="J81" s="79">
         <v>9.3092777777777798</v>
       </c>
-      <c r="K81" s="80">
+      <c r="K81" s="77">
         <v>10.709388888888901</v>
       </c>
-      <c r="L81" s="81">
+      <c r="L81" s="78">
         <v>10.2306666666667</v>
       </c>
-      <c r="M81" s="82">
+      <c r="M81" s="79">
         <v>10.924444444444401</v>
       </c>
-      <c r="N81" s="72">
+      <c r="N81" s="69">
         <v>49834.322524586503</v>
       </c>
-      <c r="O81" s="80">
+      <c r="O81" s="77">
         <v>0.75600000000000001</v>
       </c>
-      <c r="P81" s="81">
+      <c r="P81" s="78">
         <v>0.59099999999999997</v>
       </c>
-      <c r="Q81" s="81">
+      <c r="Q81" s="78">
         <v>0.59615789473684</v>
       </c>
-      <c r="R81" s="82">
+      <c r="R81" s="79">
         <v>4.694833929423E-2</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="74"/>
-      <c r="B82" s="69" t="s">
+      <c r="A82" s="71"/>
+      <c r="B82" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="C82" s="80">
+      <c r="C82" s="77">
         <v>29.85</v>
       </c>
-      <c r="D82" s="81">
+      <c r="D82" s="78">
         <v>54.64</v>
       </c>
-      <c r="E82" s="81">
+      <c r="E82" s="79">
         <v>78.772499999999994</v>
       </c>
-      <c r="F82" s="81">
+      <c r="F82" s="78">
         <v>40.78</v>
       </c>
-      <c r="G82" s="82">
+      <c r="G82" s="79">
         <v>47.652500000000003</v>
       </c>
-      <c r="H82" s="80">
+      <c r="H82" s="77">
         <v>28.913048780487799</v>
       </c>
-      <c r="I82" s="81">
+      <c r="I82" s="78">
         <v>30.261951219512198</v>
       </c>
-      <c r="J82" s="82">
+      <c r="J82" s="79">
         <v>27.731902439024399</v>
       </c>
-      <c r="K82" s="80">
+      <c r="K82" s="77">
         <v>32.912268292682903</v>
       </c>
-      <c r="L82" s="81">
+      <c r="L82" s="78">
         <v>31.768365853658501</v>
       </c>
-      <c r="M82" s="82">
+      <c r="M82" s="79">
         <v>33.858585365853699</v>
       </c>
-      <c r="N82" s="72">
+      <c r="N82" s="69">
         <v>14733.1736982402</v>
       </c>
-      <c r="O82" s="80">
+      <c r="O82" s="77">
         <v>0.55132558139535004</v>
       </c>
-      <c r="P82" s="81">
+      <c r="P82" s="78">
         <v>0.39090000000000003</v>
       </c>
-      <c r="Q82" s="81">
+      <c r="Q82" s="78">
         <v>0.52194444444443999</v>
       </c>
-      <c r="R82" s="82">
+      <c r="R82" s="79">
         <v>0.23462351547515001</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="74"/>
-      <c r="B83" s="69" t="s">
+      <c r="A83" s="71"/>
+      <c r="B83" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="70">
+      <c r="C83" s="67">
         <v>1.8218390804597699</v>
       </c>
-      <c r="D83" s="71">
+      <c r="D83" s="68">
         <v>7</v>
       </c>
-      <c r="E83" s="85">
+      <c r="E83" s="83">
         <v>20.160919540229902</v>
       </c>
-      <c r="F83" s="71">
+      <c r="F83" s="68">
         <v>34.628735632183897</v>
       </c>
-      <c r="G83" s="86">
+      <c r="G83" s="83">
         <v>42.278160919540198</v>
       </c>
-      <c r="H83" s="70">
+      <c r="H83" s="67">
         <v>4.3429642857142898</v>
       </c>
-      <c r="I83" s="71">
+      <c r="I83" s="68">
         <v>4.4168214285714296</v>
       </c>
-      <c r="J83" s="86">
+      <c r="J83" s="83">
         <v>4.3809642857142901</v>
       </c>
-      <c r="K83" s="70">
+      <c r="K83" s="67">
         <v>5.01494642857143</v>
       </c>
-      <c r="L83" s="71">
+      <c r="L83" s="68">
         <v>4.8561249999999996</v>
       </c>
-      <c r="M83" s="86">
+      <c r="M83" s="83">
         <v>5.1218214285714296</v>
       </c>
-      <c r="N83" s="72">
+      <c r="N83" s="69">
         <v>40519.390515380197</v>
       </c>
-      <c r="O83" s="70">
+      <c r="O83" s="67">
         <v>0.78688596491228002</v>
       </c>
-      <c r="P83" s="71">
+      <c r="P83" s="68">
         <v>0.70046236559139996</v>
       </c>
-      <c r="Q83" s="71">
+      <c r="Q83" s="68">
         <v>0.69902197802197996</v>
       </c>
-      <c r="R83" s="73">
+      <c r="R83" s="70">
         <v>3.9912355497970002E-2</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="74"/>
-      <c r="B84" s="88" t="s">
+      <c r="A84" s="71"/>
+      <c r="B84" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="C84" s="89">
+      <c r="C84" s="86">
         <v>42.421052631579002</v>
       </c>
-      <c r="D84" s="90">
+      <c r="D84" s="87">
         <v>70.863157894736901</v>
       </c>
-      <c r="E84" s="81">
+      <c r="E84" s="79">
         <v>91.342105263157904</v>
       </c>
-      <c r="F84" s="90">
+      <c r="F84" s="87">
         <v>38.863157894736901</v>
       </c>
-      <c r="G84" s="82">
+      <c r="G84" s="79">
         <v>46.247368421052599</v>
       </c>
-      <c r="H84" s="89">
+      <c r="H84" s="86">
         <v>40.104619047619003</v>
       </c>
-      <c r="I84" s="90">
+      <c r="I84" s="87">
         <v>41.733523809523803</v>
       </c>
-      <c r="J84" s="82">
+      <c r="J84" s="79">
         <v>38.6696666666667</v>
       </c>
-      <c r="K84" s="89">
+      <c r="K84" s="86">
         <v>44.136714285714298</v>
       </c>
-      <c r="L84" s="90">
+      <c r="L84" s="87">
         <v>43.333523809523797</v>
       </c>
-      <c r="M84" s="82">
+      <c r="M84" s="79">
         <v>44.800095238095203</v>
       </c>
-      <c r="N84" s="91">
+      <c r="N84" s="88">
         <v>5561.0100844302997</v>
       </c>
-      <c r="O84" s="89">
+      <c r="O84" s="86">
         <v>0.46957142857143003</v>
       </c>
-      <c r="P84" s="90">
+      <c r="P84" s="87">
         <v>0.32414999999999999</v>
       </c>
-      <c r="Q84" s="90">
+      <c r="Q84" s="87">
         <v>0.46105000000000002</v>
       </c>
-      <c r="R84" s="92">
+      <c r="R84" s="89">
         <v>0.32915477030415002</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="74"/>
-      <c r="B85" s="93" t="s">
+      <c r="A85" s="71"/>
+      <c r="B85" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="C85" s="80">
+      <c r="C85" s="77">
         <v>22.3</v>
       </c>
-      <c r="D85" s="81">
+      <c r="D85" s="78">
         <v>60.7</v>
       </c>
-      <c r="E85" s="81">
+      <c r="E85" s="79">
         <v>90.7</v>
       </c>
-      <c r="F85" s="81">
+      <c r="F85" s="78">
         <v>31.65</v>
       </c>
-      <c r="G85" s="82">
+      <c r="G85" s="79">
         <v>40.299999999999997</v>
       </c>
-      <c r="H85" s="80">
+      <c r="H85" s="77">
         <v>40.131333333333302</v>
       </c>
-      <c r="I85" s="81">
+      <c r="I85" s="78">
         <v>43.502000000000002</v>
       </c>
-      <c r="J85" s="82">
+      <c r="J85" s="79">
         <v>39.5356666666667</v>
       </c>
-      <c r="K85" s="80">
+      <c r="K85" s="77">
         <v>40.597000000000001</v>
       </c>
-      <c r="L85" s="81">
+      <c r="L85" s="78">
         <v>40.961666666666702</v>
       </c>
-      <c r="M85" s="82">
+      <c r="M85" s="79">
         <v>40.349333333333298</v>
       </c>
-      <c r="N85" s="94">
+      <c r="N85" s="91">
         <v>10374.809260268899</v>
       </c>
-      <c r="O85" s="80">
+      <c r="O85" s="77">
         <v>0.50333333333332997</v>
       </c>
-      <c r="P85" s="81">
+      <c r="P85" s="78">
         <v>0.307</v>
       </c>
-      <c r="Q85" s="81">
+      <c r="Q85" s="78">
         <v>0.49566666666666997</v>
       </c>
-      <c r="R85" s="82" t="s">
+      <c r="R85" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="74"/>
-      <c r="B86" s="69" t="s">
+      <c r="A86" s="71"/>
+      <c r="B86" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="C86" s="80">
+      <c r="C86" s="77">
         <v>22.623809523809499</v>
       </c>
-      <c r="D86" s="81">
+      <c r="D86" s="78">
         <v>46.295238095238098</v>
       </c>
-      <c r="E86" s="81">
+      <c r="E86" s="79">
         <v>75.957142857142898</v>
       </c>
-      <c r="F86" s="81">
+      <c r="F86" s="78">
         <v>40.747619047619096</v>
       </c>
-      <c r="G86" s="82">
+      <c r="G86" s="79">
         <v>47.242857142857197</v>
       </c>
-      <c r="H86" s="80">
+      <c r="H86" s="77">
         <v>19.355954545454601</v>
       </c>
-      <c r="I86" s="81">
+      <c r="I86" s="78">
         <v>20.459181818181801</v>
       </c>
-      <c r="J86" s="82">
+      <c r="J86" s="79">
         <v>18.3974090909091</v>
       </c>
-      <c r="K86" s="80">
+      <c r="K86" s="77">
         <v>23.340545454545499</v>
       </c>
-      <c r="L86" s="81">
+      <c r="L86" s="78">
         <v>21.808954545454501</v>
       </c>
-      <c r="M86" s="82">
+      <c r="M86" s="79">
         <v>24.6027272727273</v>
       </c>
-      <c r="N86" s="72">
+      <c r="N86" s="69">
         <v>20786.297818196901</v>
       </c>
-      <c r="O86" s="80">
+      <c r="O86" s="77">
         <v>0.58904166666667002</v>
       </c>
-      <c r="P86" s="81">
+      <c r="P86" s="78">
         <v>0.42159090909091002</v>
       </c>
-      <c r="Q86" s="81">
+      <c r="Q86" s="78">
         <v>0.56999999999999995</v>
       </c>
-      <c r="R86" s="82">
+      <c r="R86" s="79">
         <v>0.16220365529333999</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="74"/>
-      <c r="B87" s="69" t="s">
+      <c r="A87" s="71"/>
+      <c r="B87" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="C87" s="80">
+      <c r="C87" s="77">
         <v>4.8285714285714301</v>
       </c>
-      <c r="D87" s="81">
+      <c r="D87" s="78">
         <v>19.961904761904801</v>
       </c>
-      <c r="E87" s="81">
+      <c r="E87" s="79">
         <v>50.247619047619096</v>
       </c>
-      <c r="F87" s="81">
+      <c r="F87" s="78">
         <v>34.200000000000003</v>
       </c>
-      <c r="G87" s="82">
+      <c r="G87" s="79">
         <v>42.214285714285701</v>
       </c>
-      <c r="H87" s="80">
+      <c r="H87" s="77">
         <v>7.5413461538461597</v>
       </c>
-      <c r="I87" s="81">
+      <c r="I87" s="78">
         <v>7.46303846153846</v>
       </c>
-      <c r="J87" s="82">
+      <c r="J87" s="79">
         <v>7.6309615384615403</v>
       </c>
-      <c r="K87" s="80">
+      <c r="K87" s="77">
         <v>9.0971538461538497</v>
       </c>
-      <c r="L87" s="81">
+      <c r="L87" s="78">
         <v>8.8653846153846203</v>
       </c>
-      <c r="M87" s="82">
+      <c r="M87" s="79">
         <v>9.2965</v>
       </c>
-      <c r="N87" s="72">
+      <c r="N87" s="69">
         <v>19147.443819878001</v>
       </c>
-      <c r="O87" s="80">
+      <c r="O87" s="77">
         <v>0.65669999999999995</v>
       </c>
-      <c r="P87" s="81">
+      <c r="P87" s="78">
         <v>0.53349999999999997</v>
       </c>
-      <c r="Q87" s="81">
+      <c r="Q87" s="78">
         <v>0.62324999999999997</v>
       </c>
-      <c r="R87" s="82">
+      <c r="R87" s="79">
         <v>7.6540543903600003E-2</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="74"/>
-      <c r="B88" s="69" t="s">
+      <c r="A88" s="71"/>
+      <c r="B88" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="C88" s="80">
+      <c r="C88" s="77">
         <v>10.82</v>
       </c>
-      <c r="D88" s="81">
+      <c r="D88" s="78">
         <v>24.24</v>
       </c>
-      <c r="E88" s="81">
+      <c r="E88" s="79">
         <v>45.42</v>
       </c>
-      <c r="F88" s="81">
+      <c r="F88" s="78">
         <v>50.04</v>
       </c>
-      <c r="G88" s="82">
+      <c r="G88" s="79">
         <v>55.88</v>
       </c>
-      <c r="H88" s="80">
+      <c r="H88" s="77">
         <v>9.6478571428571502</v>
       </c>
-      <c r="I88" s="81">
+      <c r="I88" s="78">
         <v>11.1851428571429</v>
       </c>
-      <c r="J88" s="82">
+      <c r="J88" s="79">
         <v>8.4489999999999998</v>
       </c>
-      <c r="K88" s="80">
+      <c r="K88" s="77">
         <v>12.5792857142857</v>
       </c>
-      <c r="L88" s="81">
+      <c r="L88" s="78">
         <v>12.4221428571429</v>
       </c>
-      <c r="M88" s="82">
+      <c r="M88" s="79">
         <v>12.750142857142899</v>
       </c>
-      <c r="N88" s="72">
+      <c r="N88" s="69">
         <v>45184.713417186002</v>
       </c>
-      <c r="O88" s="80">
+      <c r="O88" s="77">
         <v>0.69185714285713995</v>
       </c>
-      <c r="P88" s="81">
+      <c r="P88" s="78">
         <v>0.52324999999999999</v>
       </c>
-      <c r="Q88" s="81">
+      <c r="Q88" s="78">
         <v>0.61116666666666997</v>
       </c>
-      <c r="R88" s="82" t="s">
+      <c r="R88" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="74"/>
-      <c r="B89" s="69" t="s">
+      <c r="A89" s="71"/>
+      <c r="B89" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="C89" s="80">
+      <c r="C89" s="77">
         <v>1.49714285714286</v>
       </c>
-      <c r="D89" s="81">
+      <c r="D89" s="78">
         <v>5.5457142857142898</v>
       </c>
-      <c r="E89" s="81">
+      <c r="E89" s="79">
         <v>21.5857142857143</v>
       </c>
-      <c r="F89" s="81">
+      <c r="F89" s="78">
         <v>37.851428571428599</v>
       </c>
-      <c r="G89" s="82">
+      <c r="G89" s="79">
         <v>44.9514285714286</v>
       </c>
-      <c r="H89" s="80">
+      <c r="H89" s="77">
         <v>1.7549142857142901</v>
       </c>
-      <c r="I89" s="81">
+      <c r="I89" s="78">
         <v>1.73885714285714</v>
       </c>
-      <c r="J89" s="82">
+      <c r="J89" s="79">
         <v>1.7663142857142899</v>
       </c>
-      <c r="K89" s="80">
+      <c r="K89" s="77">
         <v>2.2044285714285698</v>
       </c>
-      <c r="L89" s="81">
+      <c r="L89" s="78">
         <v>2.0112857142857199</v>
       </c>
-      <c r="M89" s="82">
+      <c r="M89" s="79">
         <v>2.28688571428571</v>
       </c>
-      <c r="N89" s="72">
+      <c r="N89" s="69">
         <v>35528.172065744402</v>
       </c>
-      <c r="O89" s="80">
+      <c r="O89" s="77">
         <v>0.75495555555556004</v>
       </c>
-      <c r="P89" s="81">
+      <c r="P89" s="78">
         <v>0.64210810810811003</v>
       </c>
-      <c r="Q89" s="81">
+      <c r="Q89" s="78">
         <v>0.69475757575758001</v>
       </c>
-      <c r="R89" s="82">
+      <c r="R89" s="79">
         <v>1.192257430104E-2</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="74"/>
-      <c r="B90" s="83" t="s">
+      <c r="A90" s="71"/>
+      <c r="B90" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="C90" s="84">
+      <c r="C90" s="81">
         <v>0.30249999999999999</v>
       </c>
-      <c r="D90" s="85">
+      <c r="D90" s="82">
         <v>0.61499999999999999</v>
       </c>
-      <c r="E90" s="85">
+      <c r="E90" s="83">
         <v>1.81</v>
       </c>
-      <c r="F90" s="85">
+      <c r="F90" s="82">
         <v>31.93</v>
       </c>
-      <c r="G90" s="86">
+      <c r="G90" s="83">
         <v>39.880000000000003</v>
       </c>
-      <c r="H90" s="84">
+      <c r="H90" s="81">
         <v>1.3317777777777799</v>
       </c>
-      <c r="I90" s="85">
+      <c r="I90" s="82">
         <v>1.0952222222222201</v>
       </c>
-      <c r="J90" s="86">
+      <c r="J90" s="83">
         <v>1.35177777777778</v>
       </c>
-      <c r="K90" s="84">
+      <c r="K90" s="81">
         <v>1.53511111111111</v>
       </c>
-      <c r="L90" s="85">
+      <c r="L90" s="82">
         <v>1.3724444444444399</v>
       </c>
-      <c r="M90" s="86">
+      <c r="M90" s="83">
         <v>1.63933333333333</v>
       </c>
-      <c r="N90" s="87">
+      <c r="N90" s="84">
         <v>101160.740557811</v>
       </c>
-      <c r="O90" s="84">
+      <c r="O90" s="81">
         <v>0.88356896551723996</v>
       </c>
-      <c r="P90" s="85">
+      <c r="P90" s="82">
         <v>0.81371111111111005</v>
       </c>
-      <c r="Q90" s="85">
+      <c r="Q90" s="82">
         <v>0.71267346938775999</v>
       </c>
-      <c r="R90" s="86">
+      <c r="R90" s="83">
         <v>6.9292891263700003E-3</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="74"/>
-      <c r="B91" s="69" t="s">
+      <c r="A91" s="71"/>
+      <c r="B91" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="C91" s="80">
+      <c r="C91" s="77">
         <v>35.796666666666702</v>
       </c>
-      <c r="D91" s="81">
+      <c r="D91" s="78">
         <v>62.99</v>
       </c>
-      <c r="E91" s="81">
+      <c r="E91" s="79">
         <v>87.286666666666704</v>
       </c>
-      <c r="F91" s="81">
+      <c r="F91" s="78">
         <v>39.546666666666702</v>
       </c>
-      <c r="G91" s="82">
+      <c r="G91" s="79">
         <v>46.633333333333297</v>
       </c>
-      <c r="H91" s="80">
+      <c r="H91" s="77">
         <v>35.149833333333298</v>
       </c>
-      <c r="I91" s="81">
+      <c r="I91" s="78">
         <v>36.475433333333299</v>
       </c>
-      <c r="J91" s="82">
+      <c r="J91" s="79">
         <v>34.011533333333297</v>
       </c>
-      <c r="K91" s="80">
+      <c r="K91" s="77">
         <v>39.519633333333303</v>
       </c>
-      <c r="L91" s="81">
+      <c r="L91" s="78">
         <v>38.2190333333333</v>
       </c>
-      <c r="M91" s="82">
+      <c r="M91" s="79">
         <v>40.593733333333297</v>
       </c>
-      <c r="N91" s="72">
+      <c r="N91" s="69">
         <v>6703.4158180384902</v>
       </c>
-      <c r="O91" s="80">
+      <c r="O91" s="77">
         <v>0.49428125000000001</v>
       </c>
-      <c r="P91" s="81">
+      <c r="P91" s="78">
         <v>0.34196666666667003</v>
       </c>
-      <c r="Q91" s="81">
+      <c r="Q91" s="78">
         <v>0.47749999999999998</v>
       </c>
-      <c r="R91" s="82">
+      <c r="R91" s="79">
         <v>0.30095160697824003</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="74"/>
-      <c r="B92" s="69" t="s">
+      <c r="A92" s="71"/>
+      <c r="B92" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C92" s="80">
+      <c r="C92" s="77">
         <v>10</v>
       </c>
-      <c r="D92" s="81">
+      <c r="D92" s="78">
         <v>37.533333333333303</v>
       </c>
-      <c r="E92" s="81">
+      <c r="E92" s="79">
         <v>76.95</v>
       </c>
-      <c r="F92" s="81">
+      <c r="F92" s="78">
         <v>32.683333333333302</v>
       </c>
-      <c r="G92" s="82">
+      <c r="G92" s="79">
         <v>41.466666666666697</v>
       </c>
-      <c r="H92" s="80">
+      <c r="H92" s="77">
         <v>16.672999999999998</v>
       </c>
-      <c r="I92" s="81">
+      <c r="I92" s="78">
         <v>17.1934</v>
       </c>
-      <c r="J92" s="82">
+      <c r="J92" s="79">
         <v>16.849299999999999</v>
       </c>
-      <c r="K92" s="80">
+      <c r="K92" s="77">
         <v>19.096</v>
       </c>
-      <c r="L92" s="81">
+      <c r="L92" s="78">
         <v>19.1007</v>
       </c>
-      <c r="M92" s="82">
+      <c r="M92" s="79">
         <v>19.2834</v>
       </c>
-      <c r="N92" s="72">
+      <c r="N92" s="69">
         <v>13163.397764797901</v>
       </c>
-      <c r="O92" s="80">
+      <c r="O92" s="77">
         <v>0.57933333333333004</v>
       </c>
-      <c r="P92" s="81">
+      <c r="P92" s="78">
         <v>0.44677777777777999</v>
       </c>
-      <c r="Q92" s="81">
+      <c r="Q92" s="78">
         <v>0.54900000000000004</v>
       </c>
-      <c r="R92" s="82">
+      <c r="R92" s="79">
         <v>0.12700807169031</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="74"/>
-      <c r="B93" s="69" t="s">
+      <c r="A93" s="71"/>
+      <c r="B93" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C93" s="80">
+      <c r="C93" s="77">
         <v>10.9166666666667</v>
       </c>
-      <c r="D93" s="81">
+      <c r="D93" s="78">
         <v>27.8333333333333</v>
       </c>
-      <c r="E93" s="81">
+      <c r="E93" s="79">
         <v>51.4166666666667</v>
       </c>
-      <c r="F93" s="81">
+      <c r="F93" s="78">
         <v>38.450000000000003</v>
       </c>
-      <c r="G93" s="82">
+      <c r="G93" s="79">
         <v>45.383333333333297</v>
       </c>
-      <c r="H93" s="80">
+      <c r="H93" s="77">
         <v>8.2327499999999993</v>
       </c>
-      <c r="I93" s="81">
+      <c r="I93" s="78">
         <v>9.3482500000000002</v>
       </c>
-      <c r="J93" s="82">
+      <c r="J93" s="79">
         <v>7.4695</v>
       </c>
-      <c r="K93" s="80">
+      <c r="K93" s="77">
         <v>11.217000000000001</v>
       </c>
-      <c r="L93" s="81">
+      <c r="L93" s="78">
         <v>10.217499999999999</v>
       </c>
-      <c r="M93" s="82">
+      <c r="M93" s="79">
         <v>11.949249999999999</v>
       </c>
-      <c r="N93" s="72">
+      <c r="N93" s="69">
         <v>19717.333519083</v>
       </c>
-      <c r="O93" s="80">
+      <c r="O93" s="77">
         <v>0.65133333333332999</v>
       </c>
-      <c r="P93" s="81">
+      <c r="P93" s="78">
         <v>0.48920000000000002</v>
       </c>
-      <c r="Q93" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="R93" s="82">
+      <c r="Q93" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="R93" s="79">
         <v>0.19498671269921999</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="74"/>
-      <c r="B94" s="69" t="s">
+      <c r="A94" s="71"/>
+      <c r="B94" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="C94" s="80">
+      <c r="C94" s="77">
         <v>3.4083333333333301</v>
       </c>
-      <c r="D94" s="81">
+      <c r="D94" s="78">
         <v>13.016666666666699</v>
       </c>
-      <c r="E94" s="81">
+      <c r="E94" s="79">
         <v>35.35</v>
       </c>
-      <c r="F94" s="81">
+      <c r="F94" s="78">
         <v>34.608333333333299</v>
       </c>
-      <c r="G94" s="82">
+      <c r="G94" s="79">
         <v>42.491666666666703</v>
       </c>
-      <c r="H94" s="80">
+      <c r="H94" s="77">
         <v>9.8626923076923099</v>
       </c>
-      <c r="I94" s="81">
+      <c r="I94" s="78">
         <v>9.7827692307692296</v>
       </c>
-      <c r="J94" s="82">
+      <c r="J94" s="79">
         <v>9.8823846153846198</v>
       </c>
-      <c r="K94" s="80">
+      <c r="K94" s="77">
         <v>12.224461538461499</v>
       </c>
-      <c r="L94" s="81">
+      <c r="L94" s="78">
         <v>11.1950769230769</v>
       </c>
-      <c r="M94" s="82">
+      <c r="M94" s="79">
         <v>12.8214615384615</v>
       </c>
-      <c r="N94" s="72">
+      <c r="N94" s="69">
         <v>38560.660146744201</v>
       </c>
-      <c r="O94" s="80">
+      <c r="O94" s="77">
         <v>0.71209999999999996</v>
       </c>
-      <c r="P94" s="81">
+      <c r="P94" s="78">
         <v>0.56212499999999999</v>
       </c>
-      <c r="Q94" s="81">
+      <c r="Q94" s="78">
         <v>0.63849999999999996</v>
       </c>
-      <c r="R94" s="82">
+      <c r="R94" s="79">
         <v>7.8435738681919998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="74"/>
-      <c r="B95" s="69" t="s">
+      <c r="A95" s="71"/>
+      <c r="B95" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="C95" s="80">
+      <c r="C95" s="77">
         <v>43.862499999999997</v>
       </c>
-      <c r="D95" s="81">
+      <c r="D95" s="78">
         <v>70.081249999999997</v>
       </c>
-      <c r="E95" s="81">
+      <c r="E95" s="79">
         <v>88.8125</v>
       </c>
-      <c r="F95" s="81">
+      <c r="F95" s="78">
         <v>42.65625</v>
       </c>
-      <c r="G95" s="82">
+      <c r="G95" s="79">
         <v>49.1</v>
       </c>
-      <c r="H95" s="80">
+      <c r="H95" s="77">
         <v>37.840533333333298</v>
       </c>
-      <c r="I95" s="81">
+      <c r="I95" s="78">
         <v>39.586199999999998</v>
       </c>
-      <c r="J95" s="82">
+      <c r="J95" s="79">
         <v>36.275266666666703</v>
       </c>
-      <c r="K95" s="80">
+      <c r="K95" s="77">
         <v>42.139933333333303</v>
       </c>
-      <c r="L95" s="81">
+      <c r="L95" s="78">
         <v>40.229333333333301</v>
       </c>
-      <c r="M95" s="82">
+      <c r="M95" s="79">
         <v>43.602733333333298</v>
       </c>
-      <c r="N95" s="72">
+      <c r="N95" s="69">
         <v>5728.1117417750202</v>
       </c>
-      <c r="O95" s="80">
+      <c r="O95" s="77">
         <v>0.49481249999999999</v>
       </c>
-      <c r="P95" s="81">
+      <c r="P95" s="78">
         <v>0.3412</v>
       </c>
-      <c r="Q95" s="81">
+      <c r="Q95" s="78">
         <v>0.47571428571428998</v>
       </c>
-      <c r="R95" s="82">
+      <c r="R95" s="79">
         <v>0.28883790982099999</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="74"/>
-      <c r="B96" s="69" t="s">
+      <c r="A96" s="71"/>
+      <c r="B96" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="C96" s="70">
+      <c r="C96" s="67">
         <v>1.93333333333333</v>
       </c>
-      <c r="D96" s="71">
+      <c r="D96" s="68">
         <v>8.9749999999999996</v>
       </c>
-      <c r="E96" s="85">
+      <c r="E96" s="83">
         <v>31.441666666666698</v>
       </c>
-      <c r="F96" s="71">
+      <c r="F96" s="68">
         <v>32.9166666666667</v>
       </c>
-      <c r="G96" s="86">
+      <c r="G96" s="83">
         <v>40.950000000000003</v>
       </c>
-      <c r="H96" s="70">
+      <c r="H96" s="67">
         <v>3.2865000000000002</v>
       </c>
-      <c r="I96" s="71">
+      <c r="I96" s="68">
         <v>3.5146250000000001</v>
       </c>
-      <c r="J96" s="86">
+      <c r="J96" s="83">
         <v>3.2297500000000001</v>
       </c>
-      <c r="K96" s="70">
+      <c r="K96" s="67">
         <v>3.8460000000000001</v>
       </c>
-      <c r="L96" s="71">
+      <c r="L96" s="68">
         <v>4.2328749999999999</v>
       </c>
-      <c r="M96" s="86">
+      <c r="M96" s="83">
         <v>3.6761249999999999</v>
       </c>
-      <c r="N96" s="72">
+      <c r="N96" s="69">
         <v>22128.917753923601</v>
       </c>
-      <c r="O96" s="70">
+      <c r="O96" s="67">
         <v>0.700125</v>
       </c>
-      <c r="P96" s="71">
+      <c r="P96" s="68">
         <v>0.60885714285713999</v>
       </c>
-      <c r="Q96" s="71">
+      <c r="Q96" s="68">
         <v>0.63262499999999999</v>
       </c>
-      <c r="R96" s="73">
+      <c r="R96" s="70">
         <v>3.0384778279449999E-2</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="74"/>
-      <c r="B97" s="88" t="s">
+      <c r="A97" s="71"/>
+      <c r="B97" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="C97" s="89">
+      <c r="C97" s="86">
         <v>30.065384615384598</v>
       </c>
-      <c r="D97" s="90">
+      <c r="D97" s="87">
         <v>58.438461538461603</v>
       </c>
-      <c r="E97" s="81">
+      <c r="E97" s="79">
         <v>84.965384615384593</v>
       </c>
-      <c r="F97" s="90">
+      <c r="F97" s="87">
         <v>40.1</v>
       </c>
-      <c r="G97" s="82">
+      <c r="G97" s="79">
         <v>46.903846153846203</v>
       </c>
-      <c r="H97" s="89">
+      <c r="H97" s="86">
         <v>28.025777777777801</v>
       </c>
-      <c r="I97" s="90">
+      <c r="I97" s="87">
         <v>29.489555555555601</v>
       </c>
-      <c r="J97" s="82">
+      <c r="J97" s="79">
         <v>26.708074074074101</v>
       </c>
-      <c r="K97" s="89">
+      <c r="K97" s="86">
         <v>32.934333333333299</v>
       </c>
-      <c r="L97" s="90">
+      <c r="L97" s="87">
         <v>31.4529259259259</v>
       </c>
-      <c r="M97" s="82">
+      <c r="M97" s="79">
         <v>34.129407407407399</v>
       </c>
-      <c r="N97" s="91">
+      <c r="N97" s="88">
         <v>10016.573843808799</v>
       </c>
-      <c r="O97" s="89">
+      <c r="O97" s="86">
         <v>0.52492857142856997</v>
       </c>
-      <c r="P97" s="90">
+      <c r="P97" s="87">
         <v>0.35799999999999998</v>
       </c>
-      <c r="Q97" s="90">
+      <c r="Q97" s="87">
         <v>0.50945833333333002</v>
       </c>
-      <c r="R97" s="92">
+      <c r="R97" s="89">
         <v>0.2547259074196</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="74"/>
-      <c r="B98" s="83" t="s">
+      <c r="A98" s="71"/>
+      <c r="B98" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="C98" s="84">
+      <c r="C98" s="81">
         <v>7.61</v>
       </c>
-      <c r="D98" s="85">
+      <c r="D98" s="82">
         <v>28.73</v>
       </c>
-      <c r="E98" s="85">
+      <c r="E98" s="83">
         <v>62.72</v>
       </c>
-      <c r="F98" s="85">
+      <c r="F98" s="82">
         <v>37.270000000000003</v>
       </c>
-      <c r="G98" s="86">
+      <c r="G98" s="83">
         <v>44.81</v>
       </c>
-      <c r="H98" s="84">
+      <c r="H98" s="81">
         <v>10.372733333333301</v>
       </c>
-      <c r="I98" s="85">
+      <c r="I98" s="82">
         <v>10.3296666666667</v>
       </c>
-      <c r="J98" s="86">
+      <c r="J98" s="83">
         <v>10.4648</v>
       </c>
-      <c r="K98" s="84">
+      <c r="K98" s="81">
         <v>12.922000000000001</v>
       </c>
-      <c r="L98" s="85">
+      <c r="L98" s="82">
         <v>12.1388</v>
       </c>
-      <c r="M98" s="86">
+      <c r="M98" s="83">
         <v>13.364800000000001</v>
       </c>
-      <c r="N98" s="87">
+      <c r="N98" s="84">
         <v>19777.8389894869</v>
       </c>
-      <c r="O98" s="84">
+      <c r="O98" s="81">
         <v>0.63526666666666998</v>
       </c>
-      <c r="P98" s="85">
+      <c r="P98" s="82">
         <v>0.50838461538461999</v>
       </c>
-      <c r="Q98" s="85">
+      <c r="Q98" s="82">
         <v>0.60715384615385004</v>
       </c>
-      <c r="R98" s="86">
+      <c r="R98" s="83">
         <v>9.6736208172419999E-2</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="95"/>
-      <c r="B99" s="96"/>
-      <c r="C99" s="97"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="97"/>
-      <c r="F99" s="97"/>
-      <c r="G99" s="97"/>
-      <c r="H99" s="97"/>
-      <c r="I99" s="97"/>
-      <c r="J99" s="97"/>
-      <c r="K99" s="97"/>
-      <c r="L99" s="97"/>
-      <c r="M99" s="97"/>
-      <c r="N99" s="98"/>
-      <c r="O99" s="97"/>
-      <c r="P99" s="97"/>
-      <c r="Q99" s="97"/>
-      <c r="R99" s="97"/>
+      <c r="A99" s="92"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="94"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="94"/>
+      <c r="F99" s="94"/>
+      <c r="G99" s="94"/>
+      <c r="H99" s="94"/>
+      <c r="I99" s="94"/>
+      <c r="J99" s="94"/>
+      <c r="K99" s="94"/>
+      <c r="L99" s="94"/>
+      <c r="M99" s="94"/>
+      <c r="N99" s="95"/>
+      <c r="O99" s="94"/>
+      <c r="P99" s="94"/>
+      <c r="Q99" s="94"/>
+      <c r="R99" s="94"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C100" s="99"/>
-      <c r="D100" s="99"/>
-      <c r="E100" s="99"/>
-      <c r="F100" s="99"/>
-      <c r="G100" s="99"/>
-      <c r="H100" s="99"/>
-      <c r="I100" s="99"/>
-      <c r="J100" s="99"/>
-      <c r="K100" s="99"/>
-      <c r="L100" s="99"/>
-      <c r="M100" s="99"/>
-      <c r="N100" s="100"/>
-      <c r="O100" s="99"/>
-      <c r="P100" s="99"/>
-      <c r="Q100" s="99"/>
-      <c r="R100" s="99"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="96"/>
+      <c r="E100" s="96"/>
+      <c r="F100" s="96"/>
+      <c r="G100" s="96"/>
+      <c r="H100" s="96"/>
+      <c r="I100" s="96"/>
+      <c r="J100" s="96"/>
+      <c r="K100" s="96"/>
+      <c r="L100" s="96"/>
+      <c r="M100" s="96"/>
+      <c r="N100" s="97"/>
+      <c r="O100" s="96"/>
+      <c r="P100" s="96"/>
+      <c r="Q100" s="96"/>
+      <c r="R100" s="96"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C101" s="99"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99"/>
-      <c r="G101" s="99"/>
-      <c r="H101" s="99"/>
-      <c r="I101" s="99"/>
-      <c r="J101" s="99"/>
-      <c r="K101" s="99"/>
-      <c r="L101" s="99"/>
-      <c r="M101" s="99"/>
-      <c r="N101" s="100"/>
-      <c r="O101" s="99"/>
-      <c r="P101" s="99"/>
-      <c r="Q101" s="99"/>
-      <c r="R101" s="99"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="96"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="96"/>
+      <c r="G101" s="96"/>
+      <c r="H101" s="96"/>
+      <c r="I101" s="96"/>
+      <c r="J101" s="96"/>
+      <c r="K101" s="96"/>
+      <c r="L101" s="96"/>
+      <c r="M101" s="96"/>
+      <c r="N101" s="97"/>
+      <c r="O101" s="96"/>
+      <c r="P101" s="96"/>
+      <c r="Q101" s="96"/>
+      <c r="R101" s="96"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C102" s="99"/>
-      <c r="D102" s="99"/>
-      <c r="E102" s="99"/>
-      <c r="F102" s="99"/>
-      <c r="G102" s="99"/>
-      <c r="H102" s="99"/>
-      <c r="I102" s="99"/>
-      <c r="J102" s="99"/>
-      <c r="K102" s="99"/>
-      <c r="L102" s="99"/>
-      <c r="M102" s="99"/>
-      <c r="N102" s="100"/>
-      <c r="O102" s="99"/>
-      <c r="P102" s="99"/>
-      <c r="Q102" s="99"/>
-      <c r="R102" s="99"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="96"/>
+      <c r="F102" s="96"/>
+      <c r="G102" s="96"/>
+      <c r="H102" s="96"/>
+      <c r="I102" s="96"/>
+      <c r="J102" s="96"/>
+      <c r="K102" s="96"/>
+      <c r="L102" s="96"/>
+      <c r="M102" s="96"/>
+      <c r="N102" s="97"/>
+      <c r="O102" s="96"/>
+      <c r="P102" s="96"/>
+      <c r="Q102" s="96"/>
+      <c r="R102" s="96"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C103" s="99"/>
-      <c r="D103" s="99"/>
-      <c r="E103" s="99"/>
-      <c r="F103" s="99"/>
-      <c r="G103" s="99"/>
-      <c r="H103" s="99"/>
-      <c r="I103" s="99"/>
-      <c r="J103" s="99"/>
-      <c r="K103" s="99"/>
-      <c r="L103" s="99"/>
-      <c r="M103" s="99"/>
-      <c r="N103" s="100"/>
-      <c r="O103" s="99"/>
-      <c r="P103" s="99"/>
-      <c r="Q103" s="99"/>
-      <c r="R103" s="99"/>
+      <c r="C103" s="96"/>
+      <c r="D103" s="96"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="96"/>
+      <c r="G103" s="96"/>
+      <c r="H103" s="96"/>
+      <c r="I103" s="96"/>
+      <c r="J103" s="96"/>
+      <c r="K103" s="96"/>
+      <c r="L103" s="96"/>
+      <c r="M103" s="96"/>
+      <c r="N103" s="97"/>
+      <c r="O103" s="96"/>
+      <c r="P103" s="96"/>
+      <c r="Q103" s="96"/>
+      <c r="R103" s="96"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C104" s="99"/>
-      <c r="D104" s="99"/>
-      <c r="E104" s="99"/>
-      <c r="F104" s="99"/>
-      <c r="G104" s="99"/>
-      <c r="H104" s="99"/>
-      <c r="I104" s="99"/>
-      <c r="J104" s="99"/>
-      <c r="K104" s="99"/>
-      <c r="L104" s="99"/>
-      <c r="M104" s="99"/>
-      <c r="N104" s="100"/>
-      <c r="O104" s="99"/>
-      <c r="P104" s="99"/>
-      <c r="Q104" s="99"/>
-      <c r="R104" s="99"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="96"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="96"/>
+      <c r="G104" s="96"/>
+      <c r="H104" s="96"/>
+      <c r="I104" s="96"/>
+      <c r="J104" s="96"/>
+      <c r="K104" s="96"/>
+      <c r="L104" s="96"/>
+      <c r="M104" s="96"/>
+      <c r="N104" s="97"/>
+      <c r="O104" s="96"/>
+      <c r="P104" s="96"/>
+      <c r="Q104" s="96"/>
+      <c r="R104" s="96"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C105" s="99"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
-      <c r="G105" s="99"/>
-      <c r="H105" s="99"/>
-      <c r="I105" s="99"/>
-      <c r="J105" s="99"/>
-      <c r="K105" s="99"/>
-      <c r="L105" s="99"/>
-      <c r="M105" s="99"/>
-      <c r="N105" s="100"/>
-      <c r="O105" s="99"/>
-      <c r="P105" s="99"/>
-      <c r="Q105" s="99"/>
-      <c r="R105" s="99"/>
+      <c r="C105" s="96"/>
+      <c r="D105" s="96"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="96"/>
+      <c r="G105" s="96"/>
+      <c r="H105" s="96"/>
+      <c r="I105" s="96"/>
+      <c r="J105" s="96"/>
+      <c r="K105" s="96"/>
+      <c r="L105" s="96"/>
+      <c r="M105" s="96"/>
+      <c r="N105" s="97"/>
+      <c r="O105" s="96"/>
+      <c r="P105" s="96"/>
+      <c r="Q105" s="96"/>
+      <c r="R105" s="96"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="101"/>
-      <c r="C106" s="99"/>
-      <c r="D106" s="99"/>
-      <c r="E106" s="99"/>
-      <c r="F106" s="99"/>
-      <c r="G106" s="99"/>
-      <c r="H106" s="99"/>
-      <c r="I106" s="99"/>
-      <c r="J106" s="99"/>
-      <c r="K106" s="99"/>
-      <c r="L106" s="99"/>
-      <c r="M106" s="99"/>
-      <c r="N106" s="100"/>
-      <c r="O106" s="99"/>
-      <c r="P106" s="99"/>
-      <c r="Q106" s="99"/>
-      <c r="R106" s="99"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="96"/>
+      <c r="F106" s="96"/>
+      <c r="G106" s="96"/>
+      <c r="H106" s="96"/>
+      <c r="I106" s="96"/>
+      <c r="J106" s="96"/>
+      <c r="K106" s="96"/>
+      <c r="L106" s="96"/>
+      <c r="M106" s="96"/>
+      <c r="N106" s="97"/>
+      <c r="O106" s="96"/>
+      <c r="P106" s="96"/>
+      <c r="Q106" s="96"/>
+      <c r="R106" s="96"/>
     </row>
     <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="102" t="s">
+      <c r="B107" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="C107" s="99"/>
-      <c r="D107" s="99"/>
-      <c r="E107" s="99"/>
-      <c r="F107" s="99"/>
-      <c r="G107" s="99"/>
-      <c r="H107" s="99"/>
-      <c r="I107" s="99"/>
-      <c r="J107" s="99"/>
-      <c r="K107" s="99"/>
-      <c r="L107" s="99"/>
-      <c r="M107" s="99"/>
-      <c r="N107" s="100"/>
-      <c r="O107" s="99"/>
-      <c r="P107" s="99"/>
-      <c r="Q107" s="99"/>
-      <c r="R107" s="99"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="96"/>
+      <c r="E107" s="96"/>
+      <c r="F107" s="96"/>
+      <c r="G107" s="96"/>
+      <c r="H107" s="96"/>
+      <c r="I107" s="96"/>
+      <c r="J107" s="96"/>
+      <c r="K107" s="96"/>
+      <c r="L107" s="96"/>
+      <c r="M107" s="96"/>
+      <c r="N107" s="97"/>
+      <c r="O107" s="96"/>
+      <c r="P107" s="96"/>
+      <c r="Q107" s="96"/>
+      <c r="R107" s="96"/>
     </row>
     <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="102"/>
-      <c r="C108" s="99"/>
-      <c r="D108" s="99"/>
-      <c r="E108" s="99"/>
-      <c r="F108" s="99"/>
-      <c r="G108" s="99"/>
-      <c r="H108" s="99"/>
-      <c r="I108" s="99"/>
-      <c r="J108" s="99"/>
-      <c r="K108" s="99"/>
-      <c r="L108" s="99"/>
-      <c r="M108" s="99"/>
-      <c r="N108" s="100"/>
-      <c r="O108" s="99"/>
-      <c r="P108" s="99"/>
-      <c r="Q108" s="99"/>
-      <c r="R108" s="99"/>
+      <c r="B108" s="98"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="96"/>
+      <c r="E108" s="96"/>
+      <c r="F108" s="96"/>
+      <c r="G108" s="96"/>
+      <c r="H108" s="96"/>
+      <c r="I108" s="96"/>
+      <c r="J108" s="96"/>
+      <c r="K108" s="96"/>
+      <c r="L108" s="96"/>
+      <c r="M108" s="96"/>
+      <c r="N108" s="97"/>
+      <c r="O108" s="96"/>
+      <c r="P108" s="96"/>
+      <c r="Q108" s="96"/>
+      <c r="R108" s="96"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C109" s="99"/>
-      <c r="D109" s="99"/>
-      <c r="E109" s="99"/>
-      <c r="F109" s="99"/>
-      <c r="G109" s="99"/>
-      <c r="H109" s="99"/>
-      <c r="I109" s="99"/>
-      <c r="J109" s="99"/>
-      <c r="K109" s="99"/>
-      <c r="L109" s="99"/>
-      <c r="M109" s="99"/>
-      <c r="N109" s="100"/>
-      <c r="O109" s="99"/>
-      <c r="P109" s="99"/>
-      <c r="Q109" s="99"/>
-      <c r="R109" s="99"/>
+      <c r="C109" s="96"/>
+      <c r="D109" s="96"/>
+      <c r="E109" s="96"/>
+      <c r="F109" s="96"/>
+      <c r="G109" s="96"/>
+      <c r="H109" s="96"/>
+      <c r="I109" s="96"/>
+      <c r="J109" s="96"/>
+      <c r="K109" s="96"/>
+      <c r="L109" s="96"/>
+      <c r="M109" s="96"/>
+      <c r="N109" s="97"/>
+      <c r="O109" s="96"/>
+      <c r="P109" s="96"/>
+      <c r="Q109" s="96"/>
+      <c r="R109" s="96"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C110" s="99"/>
-      <c r="D110" s="99"/>
-      <c r="E110" s="99"/>
-      <c r="F110" s="99"/>
-      <c r="G110" s="99"/>
-      <c r="H110" s="99"/>
-      <c r="I110" s="99"/>
-      <c r="J110" s="99"/>
-      <c r="K110" s="99"/>
-      <c r="L110" s="99"/>
-      <c r="M110" s="99"/>
-      <c r="N110" s="100"/>
-      <c r="O110" s="99"/>
-      <c r="P110" s="99"/>
-      <c r="Q110" s="99"/>
-      <c r="R110" s="99"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="96"/>
+      <c r="E110" s="96"/>
+      <c r="F110" s="96"/>
+      <c r="G110" s="96"/>
+      <c r="H110" s="96"/>
+      <c r="I110" s="96"/>
+      <c r="J110" s="96"/>
+      <c r="K110" s="96"/>
+      <c r="L110" s="96"/>
+      <c r="M110" s="96"/>
+      <c r="N110" s="97"/>
+      <c r="O110" s="96"/>
+      <c r="P110" s="96"/>
+      <c r="Q110" s="96"/>
+      <c r="R110" s="96"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B111" s="104" t="s">
+      <c r="B111" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="C111" s="99"/>
-      <c r="D111" s="99"/>
-      <c r="E111" s="99"/>
-      <c r="F111" s="99"/>
-      <c r="G111" s="99"/>
-      <c r="H111" s="99"/>
-      <c r="I111" s="99"/>
-      <c r="J111" s="99"/>
-      <c r="K111" s="99"/>
-      <c r="L111" s="99"/>
-      <c r="M111" s="99"/>
-      <c r="N111" s="100"/>
-      <c r="O111" s="99"/>
-      <c r="P111" s="99"/>
-      <c r="Q111" s="99"/>
-      <c r="R111" s="99"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="96"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="96"/>
+      <c r="G111" s="96"/>
+      <c r="H111" s="96"/>
+      <c r="I111" s="96"/>
+      <c r="J111" s="96"/>
+      <c r="K111" s="96"/>
+      <c r="L111" s="96"/>
+      <c r="M111" s="96"/>
+      <c r="N111" s="97"/>
+      <c r="O111" s="96"/>
+      <c r="P111" s="96"/>
+      <c r="Q111" s="96"/>
+      <c r="R111" s="96"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="C112" s="99"/>
-      <c r="D112" s="99"/>
-      <c r="E112" s="99"/>
-      <c r="F112" s="99"/>
-      <c r="G112" s="99"/>
-      <c r="H112" s="99"/>
-      <c r="I112" s="99"/>
-      <c r="J112" s="99"/>
-      <c r="K112" s="99"/>
-      <c r="L112" s="99"/>
-      <c r="M112" s="99"/>
-      <c r="N112" s="100"/>
-      <c r="O112" s="99"/>
-      <c r="P112" s="99"/>
-      <c r="Q112" s="99"/>
-      <c r="R112" s="99"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="96"/>
+      <c r="E112" s="96"/>
+      <c r="F112" s="96"/>
+      <c r="G112" s="96"/>
+      <c r="H112" s="96"/>
+      <c r="I112" s="96"/>
+      <c r="J112" s="96"/>
+      <c r="K112" s="96"/>
+      <c r="L112" s="96"/>
+      <c r="M112" s="96"/>
+      <c r="N112" s="97"/>
+      <c r="O112" s="96"/>
+      <c r="P112" s="96"/>
+      <c r="Q112" s="96"/>
+      <c r="R112" s="96"/>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
-      <c r="C113" s="99"/>
-      <c r="D113" s="99"/>
-      <c r="E113" s="99"/>
-      <c r="F113" s="99"/>
-      <c r="G113" s="99"/>
-      <c r="H113" s="99"/>
-      <c r="I113" s="99"/>
-      <c r="J113" s="99"/>
-      <c r="K113" s="99"/>
-      <c r="L113" s="99"/>
-      <c r="M113" s="99"/>
-      <c r="N113" s="100"/>
-      <c r="O113" s="99"/>
-      <c r="P113" s="99"/>
-      <c r="Q113" s="99"/>
-      <c r="R113" s="99"/>
+      <c r="C113" s="96"/>
+      <c r="D113" s="96"/>
+      <c r="E113" s="96"/>
+      <c r="F113" s="96"/>
+      <c r="G113" s="96"/>
+      <c r="H113" s="96"/>
+      <c r="I113" s="96"/>
+      <c r="J113" s="96"/>
+      <c r="K113" s="96"/>
+      <c r="L113" s="96"/>
+      <c r="M113" s="96"/>
+      <c r="N113" s="97"/>
+      <c r="O113" s="96"/>
+      <c r="P113" s="96"/>
+      <c r="Q113" s="96"/>
+      <c r="R113" s="96"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="99"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="99"/>
-      <c r="F114" s="99"/>
-      <c r="G114" s="99"/>
-      <c r="H114" s="99"/>
-      <c r="I114" s="99"/>
-      <c r="J114" s="99"/>
-      <c r="K114" s="99"/>
-      <c r="L114" s="99"/>
-      <c r="M114" s="99"/>
-      <c r="N114" s="100"/>
-      <c r="O114" s="99"/>
-      <c r="P114" s="99"/>
-      <c r="Q114" s="99"/>
-      <c r="R114" s="99"/>
+      <c r="C114" s="96"/>
+      <c r="D114" s="96"/>
+      <c r="E114" s="96"/>
+      <c r="F114" s="96"/>
+      <c r="G114" s="96"/>
+      <c r="H114" s="96"/>
+      <c r="I114" s="96"/>
+      <c r="J114" s="96"/>
+      <c r="K114" s="96"/>
+      <c r="L114" s="96"/>
+      <c r="M114" s="96"/>
+      <c r="N114" s="97"/>
+      <c r="O114" s="96"/>
+      <c r="P114" s="96"/>
+      <c r="Q114" s="96"/>
+      <c r="R114" s="96"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{12C4F0AA-3895-4CF9-95BF-AABEC43A2A9B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5FFFFB76-1FAB-4348-A43E-909B1996DC92}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{D537DFA3-6B8A-4ACF-AFDC-000763223397}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{F95D0467-83C4-4B03-A4C9-D862E7F5446F}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{E1E0769E-3BD7-46C3-886F-FCBA13FE79EE}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{CF19FE2E-F17F-4452-BA6D-36FD6E5391FB}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5A6BC13C-FE13-4481-B4B4-677BE1116E45}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{1717FC47-FF6E-4340-BBD2-96EC601F3412}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{5BD9F302-61FC-4112-9DE2-41844007BA2B}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{25058DD3-8F2A-4BDD-A913-0E18503E708D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2EA0781-3598-427E-B95E-072291C999DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AF536AB-AF46-404F-A2E3-23D718F29B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{9C727FAC-2429-46AC-8713-7310416BDD55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA6894A6-78AC-4DFD-AA0A-0716E9D56D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="182">
   <si>
     <t>Tableau 9 : Indicateurs des inégalités et de la pauvreté</t>
   </si>
@@ -480,13 +480,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -929,7 +935,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1181,20 +1187,29 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1534,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DC665E-30F3-49C9-9273-B81498349DDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BA6BFD-7874-46B9-96CF-94075646C593}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1546,7 +1561,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="100" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="103" bestFit="1" customWidth="1"/>
     <col min="4" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5201,7 +5216,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="71"/>
-      <c r="B67" s="66" t="s">
+      <c r="B67" s="85" t="s">
         <v>139</v>
       </c>
       <c r="C67" s="77">
@@ -5255,7 +5270,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="71"/>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="85" t="s">
         <v>140</v>
       </c>
       <c r="C68" s="77">
@@ -5309,7 +5324,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="71"/>
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="85" t="s">
         <v>141</v>
       </c>
       <c r="C69" s="77">
@@ -5363,7 +5378,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="71"/>
-      <c r="B70" s="66" t="s">
+      <c r="B70" s="85" t="s">
         <v>142</v>
       </c>
       <c r="C70" s="77">
@@ -5417,7 +5432,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="71"/>
-      <c r="B71" s="66" t="s">
+      <c r="B71" s="85" t="s">
         <v>143</v>
       </c>
       <c r="C71" s="77">
@@ -5471,7 +5486,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="71"/>
-      <c r="B72" s="66" t="s">
+      <c r="B72" s="85" t="s">
         <v>144</v>
       </c>
       <c r="C72" s="77">
@@ -5525,7 +5540,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="71"/>
-      <c r="B73" s="66" t="s">
+      <c r="B73" s="85" t="s">
         <v>145</v>
       </c>
       <c r="C73" s="77">
@@ -5579,8 +5594,8 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="71"/>
-      <c r="B74" s="66" t="s">
-        <v>145</v>
+      <c r="B74" s="85" t="s">
+        <v>146</v>
       </c>
       <c r="C74" s="77">
         <v>2.85</v>
@@ -5633,8 +5648,8 @@
     </row>
     <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="71"/>
-      <c r="B75" s="66" t="s">
-        <v>146</v>
+      <c r="B75" s="85" t="s">
+        <v>147</v>
       </c>
       <c r="C75" s="67">
         <v>30.38</v>
@@ -5687,62 +5702,62 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="71"/>
-      <c r="B76" s="85" t="s">
-        <v>147</v>
-      </c>
-      <c r="C76" s="86">
+      <c r="B76" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="87">
         <v>2.1428571428571401</v>
       </c>
-      <c r="D76" s="87">
+      <c r="D76" s="88">
         <v>13.271428571428601</v>
       </c>
       <c r="E76" s="79">
         <v>41</v>
       </c>
-      <c r="F76" s="87">
+      <c r="F76" s="88">
         <v>37.171428571428599</v>
       </c>
       <c r="G76" s="79">
         <v>44.771428571428601</v>
       </c>
-      <c r="H76" s="86">
+      <c r="H76" s="87">
         <v>4.7977499999999997</v>
       </c>
-      <c r="I76" s="87">
+      <c r="I76" s="88">
         <v>4.6138750000000002</v>
       </c>
       <c r="J76" s="79">
         <v>4.9517499999999997</v>
       </c>
-      <c r="K76" s="86">
+      <c r="K76" s="87">
         <v>6.1837499999999999</v>
       </c>
-      <c r="L76" s="87">
+      <c r="L76" s="88">
         <v>5.7312500000000002</v>
       </c>
       <c r="M76" s="79">
         <v>6.5787500000000003</v>
       </c>
-      <c r="N76" s="88">
+      <c r="N76" s="89">
         <v>24703.950848324101</v>
       </c>
-      <c r="O76" s="86">
+      <c r="O76" s="87">
         <v>0.72629999999999995</v>
       </c>
-      <c r="P76" s="87">
+      <c r="P76" s="88">
         <v>0.60028571428570998</v>
       </c>
-      <c r="Q76" s="87">
+      <c r="Q76" s="88">
         <v>0.61460000000000004</v>
       </c>
-      <c r="R76" s="89">
+      <c r="R76" s="90">
         <v>3.8364099472040003E-2</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="71"/>
-      <c r="B77" s="66" t="s">
-        <v>148</v>
+      <c r="B77" s="85" t="s">
+        <v>149</v>
       </c>
       <c r="C77" s="77">
         <v>2.1</v>
@@ -5795,8 +5810,8 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="71"/>
-      <c r="B78" s="66" t="s">
-        <v>148</v>
+      <c r="B78" s="85" t="s">
+        <v>150</v>
       </c>
       <c r="C78" s="77">
         <v>0.32222222222222002</v>
@@ -5849,8 +5864,8 @@
     </row>
     <row r="79" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="71"/>
-      <c r="B79" s="80" t="s">
-        <v>149</v>
+      <c r="B79" s="91" t="s">
+        <v>151</v>
       </c>
       <c r="C79" s="81">
         <v>0.45</v>
@@ -5904,7 +5919,7 @@
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="71"/>
       <c r="B80" s="66" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C80" s="77">
         <v>23.616666666666699</v>
@@ -5958,7 +5973,7 @@
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="71"/>
       <c r="B81" s="66" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C81" s="77">
         <v>5.15</v>
@@ -6012,7 +6027,7 @@
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="71"/>
       <c r="B82" s="66" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C82" s="77">
         <v>29.85</v>
@@ -6066,7 +6081,7 @@
     <row r="83" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="71"/>
       <c r="B83" s="66" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C83" s="67">
         <v>1.8218390804597699</v>
@@ -6119,62 +6134,62 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="71"/>
-      <c r="B84" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="C84" s="86">
+      <c r="B84" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="87">
         <v>42.421052631579002</v>
       </c>
-      <c r="D84" s="87">
+      <c r="D84" s="88">
         <v>70.863157894736901</v>
       </c>
       <c r="E84" s="79">
         <v>91.342105263157904</v>
       </c>
-      <c r="F84" s="87">
+      <c r="F84" s="88">
         <v>38.863157894736901</v>
       </c>
       <c r="G84" s="79">
         <v>46.247368421052599</v>
       </c>
-      <c r="H84" s="86">
+      <c r="H84" s="87">
         <v>40.104619047619003</v>
       </c>
-      <c r="I84" s="87">
+      <c r="I84" s="88">
         <v>41.733523809523803</v>
       </c>
       <c r="J84" s="79">
         <v>38.6696666666667</v>
       </c>
-      <c r="K84" s="86">
+      <c r="K84" s="87">
         <v>44.136714285714298</v>
       </c>
-      <c r="L84" s="87">
+      <c r="L84" s="88">
         <v>43.333523809523797</v>
       </c>
       <c r="M84" s="79">
         <v>44.800095238095203</v>
       </c>
-      <c r="N84" s="88">
+      <c r="N84" s="89">
         <v>5561.0100844302997</v>
       </c>
-      <c r="O84" s="86">
+      <c r="O84" s="87">
         <v>0.46957142857143003</v>
       </c>
-      <c r="P84" s="87">
+      <c r="P84" s="88">
         <v>0.32414999999999999</v>
       </c>
-      <c r="Q84" s="87">
+      <c r="Q84" s="88">
         <v>0.46105000000000002</v>
       </c>
-      <c r="R84" s="89">
+      <c r="R84" s="90">
         <v>0.32915477030415002</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="71"/>
-      <c r="B85" s="90" t="s">
-        <v>155</v>
+      <c r="B85" s="93" t="s">
+        <v>157</v>
       </c>
       <c r="C85" s="77">
         <v>22.3</v>
@@ -6209,7 +6224,7 @@
       <c r="M85" s="79">
         <v>40.349333333333298</v>
       </c>
-      <c r="N85" s="91">
+      <c r="N85" s="94">
         <v>10374.809260268899</v>
       </c>
       <c r="O85" s="77">
@@ -6228,7 +6243,7 @@
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="71"/>
       <c r="B86" s="66" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C86" s="77">
         <v>22.623809523809499</v>
@@ -6282,7 +6297,7 @@
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="71"/>
       <c r="B87" s="66" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C87" s="77">
         <v>4.8285714285714301</v>
@@ -6336,7 +6351,7 @@
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="71"/>
       <c r="B88" s="66" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C88" s="77">
         <v>10.82</v>
@@ -6390,7 +6405,7 @@
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="71"/>
       <c r="B89" s="66" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C89" s="77">
         <v>1.49714285714286</v>
@@ -6444,7 +6459,7 @@
     <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="71"/>
       <c r="B90" s="80" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C90" s="81">
         <v>0.30249999999999999</v>
@@ -6498,7 +6513,7 @@
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="71"/>
       <c r="B91" s="66" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C91" s="77">
         <v>35.796666666666702</v>
@@ -6552,7 +6567,7 @@
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="71"/>
       <c r="B92" s="66" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C92" s="77">
         <v>10</v>
@@ -6606,7 +6621,7 @@
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="71"/>
       <c r="B93" s="66" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C93" s="77">
         <v>10.9166666666667</v>
@@ -6660,7 +6675,7 @@
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="71"/>
       <c r="B94" s="66" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C94" s="77">
         <v>3.4083333333333301</v>
@@ -6714,7 +6729,7 @@
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="71"/>
       <c r="B95" s="66" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C95" s="77">
         <v>43.862499999999997</v>
@@ -6768,7 +6783,7 @@
     <row r="96" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="71"/>
       <c r="B96" s="66" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C96" s="67">
         <v>1.93333333333333</v>
@@ -6821,62 +6836,62 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="71"/>
-      <c r="B97" s="85" t="s">
-        <v>167</v>
-      </c>
-      <c r="C97" s="86">
+      <c r="B97" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="87">
         <v>30.065384615384598</v>
       </c>
-      <c r="D97" s="87">
+      <c r="D97" s="88">
         <v>58.438461538461603</v>
       </c>
       <c r="E97" s="79">
         <v>84.965384615384593</v>
       </c>
-      <c r="F97" s="87">
+      <c r="F97" s="88">
         <v>40.1</v>
       </c>
       <c r="G97" s="79">
         <v>46.903846153846203</v>
       </c>
-      <c r="H97" s="86">
+      <c r="H97" s="87">
         <v>28.025777777777801</v>
       </c>
-      <c r="I97" s="87">
+      <c r="I97" s="88">
         <v>29.489555555555601</v>
       </c>
       <c r="J97" s="79">
         <v>26.708074074074101</v>
       </c>
-      <c r="K97" s="86">
+      <c r="K97" s="87">
         <v>32.934333333333299</v>
       </c>
-      <c r="L97" s="87">
+      <c r="L97" s="88">
         <v>31.4529259259259</v>
       </c>
       <c r="M97" s="79">
         <v>34.129407407407399</v>
       </c>
-      <c r="N97" s="88">
+      <c r="N97" s="89">
         <v>10016.573843808799</v>
       </c>
-      <c r="O97" s="86">
+      <c r="O97" s="87">
         <v>0.52492857142856997</v>
       </c>
-      <c r="P97" s="87">
+      <c r="P97" s="88">
         <v>0.35799999999999998</v>
       </c>
-      <c r="Q97" s="87">
+      <c r="Q97" s="88">
         <v>0.50945833333333002</v>
       </c>
-      <c r="R97" s="89">
+      <c r="R97" s="90">
         <v>0.2547259074196</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="71"/>
       <c r="B98" s="80" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C98" s="81">
         <v>7.61</v>
@@ -6928,338 +6943,338 @@
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="92"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="94"/>
-      <c r="D99" s="94"/>
-      <c r="E99" s="94"/>
-      <c r="F99" s="94"/>
-      <c r="G99" s="94"/>
-      <c r="H99" s="94"/>
-      <c r="I99" s="94"/>
-      <c r="J99" s="94"/>
-      <c r="K99" s="94"/>
-      <c r="L99" s="94"/>
-      <c r="M99" s="94"/>
-      <c r="N99" s="95"/>
-      <c r="O99" s="94"/>
-      <c r="P99" s="94"/>
-      <c r="Q99" s="94"/>
-      <c r="R99" s="94"/>
+      <c r="A99" s="95"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="97"/>
+      <c r="F99" s="97"/>
+      <c r="G99" s="97"/>
+      <c r="H99" s="97"/>
+      <c r="I99" s="97"/>
+      <c r="J99" s="97"/>
+      <c r="K99" s="97"/>
+      <c r="L99" s="97"/>
+      <c r="M99" s="97"/>
+      <c r="N99" s="98"/>
+      <c r="O99" s="97"/>
+      <c r="P99" s="97"/>
+      <c r="Q99" s="97"/>
+      <c r="R99" s="97"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C100" s="96"/>
-      <c r="D100" s="96"/>
-      <c r="E100" s="96"/>
-      <c r="F100" s="96"/>
-      <c r="G100" s="96"/>
-      <c r="H100" s="96"/>
-      <c r="I100" s="96"/>
-      <c r="J100" s="96"/>
-      <c r="K100" s="96"/>
-      <c r="L100" s="96"/>
-      <c r="M100" s="96"/>
-      <c r="N100" s="97"/>
-      <c r="O100" s="96"/>
-      <c r="P100" s="96"/>
-      <c r="Q100" s="96"/>
-      <c r="R100" s="96"/>
+        <v>171</v>
+      </c>
+      <c r="C100" s="99"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="99"/>
+      <c r="F100" s="99"/>
+      <c r="G100" s="99"/>
+      <c r="H100" s="99"/>
+      <c r="I100" s="99"/>
+      <c r="J100" s="99"/>
+      <c r="K100" s="99"/>
+      <c r="L100" s="99"/>
+      <c r="M100" s="99"/>
+      <c r="N100" s="100"/>
+      <c r="O100" s="99"/>
+      <c r="P100" s="99"/>
+      <c r="Q100" s="99"/>
+      <c r="R100" s="99"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C101" s="96"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="96"/>
-      <c r="F101" s="96"/>
-      <c r="G101" s="96"/>
-      <c r="H101" s="96"/>
-      <c r="I101" s="96"/>
-      <c r="J101" s="96"/>
-      <c r="K101" s="96"/>
-      <c r="L101" s="96"/>
-      <c r="M101" s="96"/>
-      <c r="N101" s="97"/>
-      <c r="O101" s="96"/>
-      <c r="P101" s="96"/>
-      <c r="Q101" s="96"/>
-      <c r="R101" s="96"/>
+        <v>172</v>
+      </c>
+      <c r="C101" s="99"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="99"/>
+      <c r="H101" s="99"/>
+      <c r="I101" s="99"/>
+      <c r="J101" s="99"/>
+      <c r="K101" s="99"/>
+      <c r="L101" s="99"/>
+      <c r="M101" s="99"/>
+      <c r="N101" s="100"/>
+      <c r="O101" s="99"/>
+      <c r="P101" s="99"/>
+      <c r="Q101" s="99"/>
+      <c r="R101" s="99"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C102" s="96"/>
-      <c r="D102" s="96"/>
-      <c r="E102" s="96"/>
-      <c r="F102" s="96"/>
-      <c r="G102" s="96"/>
-      <c r="H102" s="96"/>
-      <c r="I102" s="96"/>
-      <c r="J102" s="96"/>
-      <c r="K102" s="96"/>
-      <c r="L102" s="96"/>
-      <c r="M102" s="96"/>
-      <c r="N102" s="97"/>
-      <c r="O102" s="96"/>
-      <c r="P102" s="96"/>
-      <c r="Q102" s="96"/>
-      <c r="R102" s="96"/>
+        <v>173</v>
+      </c>
+      <c r="C102" s="99"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="99"/>
+      <c r="H102" s="99"/>
+      <c r="I102" s="99"/>
+      <c r="J102" s="99"/>
+      <c r="K102" s="99"/>
+      <c r="L102" s="99"/>
+      <c r="M102" s="99"/>
+      <c r="N102" s="100"/>
+      <c r="O102" s="99"/>
+      <c r="P102" s="99"/>
+      <c r="Q102" s="99"/>
+      <c r="R102" s="99"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C103" s="96"/>
-      <c r="D103" s="96"/>
-      <c r="E103" s="96"/>
-      <c r="F103" s="96"/>
-      <c r="G103" s="96"/>
-      <c r="H103" s="96"/>
-      <c r="I103" s="96"/>
-      <c r="J103" s="96"/>
-      <c r="K103" s="96"/>
-      <c r="L103" s="96"/>
-      <c r="M103" s="96"/>
-      <c r="N103" s="97"/>
-      <c r="O103" s="96"/>
-      <c r="P103" s="96"/>
-      <c r="Q103" s="96"/>
-      <c r="R103" s="96"/>
+        <v>174</v>
+      </c>
+      <c r="C103" s="99"/>
+      <c r="D103" s="99"/>
+      <c r="E103" s="99"/>
+      <c r="F103" s="99"/>
+      <c r="G103" s="99"/>
+      <c r="H103" s="99"/>
+      <c r="I103" s="99"/>
+      <c r="J103" s="99"/>
+      <c r="K103" s="99"/>
+      <c r="L103" s="99"/>
+      <c r="M103" s="99"/>
+      <c r="N103" s="100"/>
+      <c r="O103" s="99"/>
+      <c r="P103" s="99"/>
+      <c r="Q103" s="99"/>
+      <c r="R103" s="99"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C104" s="96"/>
-      <c r="D104" s="96"/>
-      <c r="E104" s="96"/>
-      <c r="F104" s="96"/>
-      <c r="G104" s="96"/>
-      <c r="H104" s="96"/>
-      <c r="I104" s="96"/>
-      <c r="J104" s="96"/>
-      <c r="K104" s="96"/>
-      <c r="L104" s="96"/>
-      <c r="M104" s="96"/>
-      <c r="N104" s="97"/>
-      <c r="O104" s="96"/>
-      <c r="P104" s="96"/>
-      <c r="Q104" s="96"/>
-      <c r="R104" s="96"/>
+        <v>175</v>
+      </c>
+      <c r="C104" s="99"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="99"/>
+      <c r="H104" s="99"/>
+      <c r="I104" s="99"/>
+      <c r="J104" s="99"/>
+      <c r="K104" s="99"/>
+      <c r="L104" s="99"/>
+      <c r="M104" s="99"/>
+      <c r="N104" s="100"/>
+      <c r="O104" s="99"/>
+      <c r="P104" s="99"/>
+      <c r="Q104" s="99"/>
+      <c r="R104" s="99"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C105" s="96"/>
-      <c r="D105" s="96"/>
-      <c r="E105" s="96"/>
-      <c r="F105" s="96"/>
-      <c r="G105" s="96"/>
-      <c r="H105" s="96"/>
-      <c r="I105" s="96"/>
-      <c r="J105" s="96"/>
-      <c r="K105" s="96"/>
-      <c r="L105" s="96"/>
-      <c r="M105" s="96"/>
-      <c r="N105" s="97"/>
-      <c r="O105" s="96"/>
-      <c r="P105" s="96"/>
-      <c r="Q105" s="96"/>
-      <c r="R105" s="96"/>
+        <v>176</v>
+      </c>
+      <c r="C105" s="99"/>
+      <c r="D105" s="99"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="99"/>
+      <c r="H105" s="99"/>
+      <c r="I105" s="99"/>
+      <c r="J105" s="99"/>
+      <c r="K105" s="99"/>
+      <c r="L105" s="99"/>
+      <c r="M105" s="99"/>
+      <c r="N105" s="100"/>
+      <c r="O105" s="99"/>
+      <c r="P105" s="99"/>
+      <c r="Q105" s="99"/>
+      <c r="R105" s="99"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C106" s="96"/>
-      <c r="D106" s="96"/>
-      <c r="E106" s="96"/>
-      <c r="F106" s="96"/>
-      <c r="G106" s="96"/>
-      <c r="H106" s="96"/>
-      <c r="I106" s="96"/>
-      <c r="J106" s="96"/>
-      <c r="K106" s="96"/>
-      <c r="L106" s="96"/>
-      <c r="M106" s="96"/>
-      <c r="N106" s="97"/>
-      <c r="O106" s="96"/>
-      <c r="P106" s="96"/>
-      <c r="Q106" s="96"/>
-      <c r="R106" s="96"/>
+      <c r="C106" s="99"/>
+      <c r="D106" s="99"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="99"/>
+      <c r="H106" s="99"/>
+      <c r="I106" s="99"/>
+      <c r="J106" s="99"/>
+      <c r="K106" s="99"/>
+      <c r="L106" s="99"/>
+      <c r="M106" s="99"/>
+      <c r="N106" s="100"/>
+      <c r="O106" s="99"/>
+      <c r="P106" s="99"/>
+      <c r="Q106" s="99"/>
+      <c r="R106" s="99"/>
     </row>
     <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="98" t="s">
-        <v>175</v>
-      </c>
-      <c r="C107" s="96"/>
-      <c r="D107" s="96"/>
-      <c r="E107" s="96"/>
-      <c r="F107" s="96"/>
-      <c r="G107" s="96"/>
-      <c r="H107" s="96"/>
-      <c r="I107" s="96"/>
-      <c r="J107" s="96"/>
-      <c r="K107" s="96"/>
-      <c r="L107" s="96"/>
-      <c r="M107" s="96"/>
-      <c r="N107" s="97"/>
-      <c r="O107" s="96"/>
-      <c r="P107" s="96"/>
-      <c r="Q107" s="96"/>
-      <c r="R107" s="96"/>
+      <c r="B107" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" s="99"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="99"/>
+      <c r="G107" s="99"/>
+      <c r="H107" s="99"/>
+      <c r="I107" s="99"/>
+      <c r="J107" s="99"/>
+      <c r="K107" s="99"/>
+      <c r="L107" s="99"/>
+      <c r="M107" s="99"/>
+      <c r="N107" s="100"/>
+      <c r="O107" s="99"/>
+      <c r="P107" s="99"/>
+      <c r="Q107" s="99"/>
+      <c r="R107" s="99"/>
     </row>
     <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="98"/>
-      <c r="C108" s="96"/>
-      <c r="D108" s="96"/>
-      <c r="E108" s="96"/>
-      <c r="F108" s="96"/>
-      <c r="G108" s="96"/>
-      <c r="H108" s="96"/>
-      <c r="I108" s="96"/>
-      <c r="J108" s="96"/>
-      <c r="K108" s="96"/>
-      <c r="L108" s="96"/>
-      <c r="M108" s="96"/>
-      <c r="N108" s="97"/>
-      <c r="O108" s="96"/>
-      <c r="P108" s="96"/>
-      <c r="Q108" s="96"/>
-      <c r="R108" s="96"/>
+      <c r="B108" s="101"/>
+      <c r="C108" s="99"/>
+      <c r="D108" s="99"/>
+      <c r="E108" s="99"/>
+      <c r="F108" s="99"/>
+      <c r="G108" s="99"/>
+      <c r="H108" s="99"/>
+      <c r="I108" s="99"/>
+      <c r="J108" s="99"/>
+      <c r="K108" s="99"/>
+      <c r="L108" s="99"/>
+      <c r="M108" s="99"/>
+      <c r="N108" s="100"/>
+      <c r="O108" s="99"/>
+      <c r="P108" s="99"/>
+      <c r="Q108" s="99"/>
+      <c r="R108" s="99"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C109" s="96"/>
-      <c r="D109" s="96"/>
-      <c r="E109" s="96"/>
-      <c r="F109" s="96"/>
-      <c r="G109" s="96"/>
-      <c r="H109" s="96"/>
-      <c r="I109" s="96"/>
-      <c r="J109" s="96"/>
-      <c r="K109" s="96"/>
-      <c r="L109" s="96"/>
-      <c r="M109" s="96"/>
-      <c r="N109" s="97"/>
-      <c r="O109" s="96"/>
-      <c r="P109" s="96"/>
-      <c r="Q109" s="96"/>
-      <c r="R109" s="96"/>
+        <v>179</v>
+      </c>
+      <c r="C109" s="99"/>
+      <c r="D109" s="99"/>
+      <c r="E109" s="99"/>
+      <c r="F109" s="99"/>
+      <c r="G109" s="99"/>
+      <c r="H109" s="99"/>
+      <c r="I109" s="99"/>
+      <c r="J109" s="99"/>
+      <c r="K109" s="99"/>
+      <c r="L109" s="99"/>
+      <c r="M109" s="99"/>
+      <c r="N109" s="100"/>
+      <c r="O109" s="99"/>
+      <c r="P109" s="99"/>
+      <c r="Q109" s="99"/>
+      <c r="R109" s="99"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" s="99"/>
+      <c r="D110" s="99"/>
+      <c r="E110" s="99"/>
+      <c r="F110" s="99"/>
+      <c r="G110" s="99"/>
+      <c r="H110" s="99"/>
+      <c r="I110" s="99"/>
+      <c r="J110" s="99"/>
+      <c r="K110" s="99"/>
+      <c r="L110" s="99"/>
+      <c r="M110" s="99"/>
+      <c r="N110" s="100"/>
+      <c r="O110" s="99"/>
+      <c r="P110" s="99"/>
+      <c r="Q110" s="99"/>
+      <c r="R110" s="99"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B111" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="C111" s="99"/>
+      <c r="D111" s="99"/>
+      <c r="E111" s="99"/>
+      <c r="F111" s="99"/>
+      <c r="G111" s="99"/>
+      <c r="H111" s="99"/>
+      <c r="I111" s="99"/>
+      <c r="J111" s="99"/>
+      <c r="K111" s="99"/>
+      <c r="L111" s="99"/>
+      <c r="M111" s="99"/>
+      <c r="N111" s="100"/>
+      <c r="O111" s="99"/>
+      <c r="P111" s="99"/>
+      <c r="Q111" s="99"/>
+      <c r="R111" s="99"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B112" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="C110" s="96"/>
-      <c r="D110" s="96"/>
-      <c r="E110" s="96"/>
-      <c r="F110" s="96"/>
-      <c r="G110" s="96"/>
-      <c r="H110" s="96"/>
-      <c r="I110" s="96"/>
-      <c r="J110" s="96"/>
-      <c r="K110" s="96"/>
-      <c r="L110" s="96"/>
-      <c r="M110" s="96"/>
-      <c r="N110" s="97"/>
-      <c r="O110" s="96"/>
-      <c r="P110" s="96"/>
-      <c r="Q110" s="96"/>
-      <c r="R110" s="96"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B111" s="99" t="s">
-        <v>179</v>
-      </c>
-      <c r="C111" s="96"/>
-      <c r="D111" s="96"/>
-      <c r="E111" s="96"/>
-      <c r="F111" s="96"/>
-      <c r="G111" s="96"/>
-      <c r="H111" s="96"/>
-      <c r="I111" s="96"/>
-      <c r="J111" s="96"/>
-      <c r="K111" s="96"/>
-      <c r="L111" s="96"/>
-      <c r="M111" s="96"/>
-      <c r="N111" s="97"/>
-      <c r="O111" s="96"/>
-      <c r="P111" s="96"/>
-      <c r="Q111" s="96"/>
-      <c r="R111" s="96"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B112" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="C112" s="96"/>
-      <c r="D112" s="96"/>
-      <c r="E112" s="96"/>
-      <c r="F112" s="96"/>
-      <c r="G112" s="96"/>
-      <c r="H112" s="96"/>
-      <c r="I112" s="96"/>
-      <c r="J112" s="96"/>
-      <c r="K112" s="96"/>
-      <c r="L112" s="96"/>
-      <c r="M112" s="96"/>
-      <c r="N112" s="97"/>
-      <c r="O112" s="96"/>
-      <c r="P112" s="96"/>
-      <c r="Q112" s="96"/>
-      <c r="R112" s="96"/>
+      <c r="C112" s="99"/>
+      <c r="D112" s="99"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="99"/>
+      <c r="H112" s="99"/>
+      <c r="I112" s="99"/>
+      <c r="J112" s="99"/>
+      <c r="K112" s="99"/>
+      <c r="L112" s="99"/>
+      <c r="M112" s="99"/>
+      <c r="N112" s="100"/>
+      <c r="O112" s="99"/>
+      <c r="P112" s="99"/>
+      <c r="Q112" s="99"/>
+      <c r="R112" s="99"/>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
-      <c r="C113" s="96"/>
-      <c r="D113" s="96"/>
-      <c r="E113" s="96"/>
-      <c r="F113" s="96"/>
-      <c r="G113" s="96"/>
-      <c r="H113" s="96"/>
-      <c r="I113" s="96"/>
-      <c r="J113" s="96"/>
-      <c r="K113" s="96"/>
-      <c r="L113" s="96"/>
-      <c r="M113" s="96"/>
-      <c r="N113" s="97"/>
-      <c r="O113" s="96"/>
-      <c r="P113" s="96"/>
-      <c r="Q113" s="96"/>
-      <c r="R113" s="96"/>
+      <c r="C113" s="99"/>
+      <c r="D113" s="99"/>
+      <c r="E113" s="99"/>
+      <c r="F113" s="99"/>
+      <c r="G113" s="99"/>
+      <c r="H113" s="99"/>
+      <c r="I113" s="99"/>
+      <c r="J113" s="99"/>
+      <c r="K113" s="99"/>
+      <c r="L113" s="99"/>
+      <c r="M113" s="99"/>
+      <c r="N113" s="100"/>
+      <c r="O113" s="99"/>
+      <c r="P113" s="99"/>
+      <c r="Q113" s="99"/>
+      <c r="R113" s="99"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="96"/>
-      <c r="D114" s="96"/>
-      <c r="E114" s="96"/>
-      <c r="F114" s="96"/>
-      <c r="G114" s="96"/>
-      <c r="H114" s="96"/>
-      <c r="I114" s="96"/>
-      <c r="J114" s="96"/>
-      <c r="K114" s="96"/>
-      <c r="L114" s="96"/>
-      <c r="M114" s="96"/>
-      <c r="N114" s="97"/>
-      <c r="O114" s="96"/>
-      <c r="P114" s="96"/>
-      <c r="Q114" s="96"/>
-      <c r="R114" s="96"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="99"/>
+      <c r="F114" s="99"/>
+      <c r="G114" s="99"/>
+      <c r="H114" s="99"/>
+      <c r="I114" s="99"/>
+      <c r="J114" s="99"/>
+      <c r="K114" s="99"/>
+      <c r="L114" s="99"/>
+      <c r="M114" s="99"/>
+      <c r="N114" s="100"/>
+      <c r="O114" s="99"/>
+      <c r="P114" s="99"/>
+      <c r="Q114" s="99"/>
+      <c r="R114" s="99"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{CF19FE2E-F17F-4452-BA6D-36FD6E5391FB}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5A6BC13C-FE13-4481-B4B4-677BE1116E45}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{1717FC47-FF6E-4340-BBD2-96EC601F3412}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{5BD9F302-61FC-4112-9DE2-41844007BA2B}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{25058DD3-8F2A-4BDD-A913-0E18503E708D}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F7194078-F0B5-4A53-97D8-A0E9BF5A9915}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4448B096-3451-4B9B-8E22-77AB19F0439F}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{7A8752BD-71C3-4582-A9BF-BF046744DCFE}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{FFDC5798-91EB-4FF9-ABE9-ADECA72B551B}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{1A5E5EBC-3FF2-4059-86F0-3272AA8574EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId6"/>
